--- a/test_results/verification_calculations_stochastic.xlsx
+++ b/test_results/verification_calculations_stochastic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DockWorkerRobot\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{292D8DD0-6759-43DF-86C8-626242FBE2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FDFE18-1FA0-4D68-9F0E-EC8ACC1E1DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31120" yWindow="6500" windowWidth="14400" windowHeight="8000" activeTab="8" xr2:uid="{529377D4-A6AB-45AB-8C69-CE68DA65ECAD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="8" xr2:uid="{529377D4-A6AB-45AB-8C69-CE68DA65ECAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="46">
   <si>
     <t>K</t>
   </si>
@@ -174,6 +174,12 @@
   <si>
     <t>DETERMINISTIC TEST CASES VS STOCHASTIC TEST CASES</t>
   </si>
+  <si>
+    <t>Characteristic Distribution : Normal</t>
+  </si>
+  <si>
+    <t>Characteristic Distribution : Exponential</t>
+  </si>
 </sst>
 </file>
 
@@ -283,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -463,6 +469,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -476,7 +491,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,15 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -574,6 +580,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -587,37 +605,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1813,17 +1801,17 @@
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2951,22 +2939,22 @@
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:14" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="13"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2994,78 +2982,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>6</v>
       </c>
       <c r="B2" s="3">
@@ -3089,10 +3077,10 @@
       <c r="H2" s="4">
         <v>168</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="19">
         <v>28</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -3131,12 +3119,12 @@
       <c r="W2" s="9">
         <v>27.88</v>
       </c>
-      <c r="X2" s="31">
+      <c r="X2" s="28">
         <v>5.2</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>6</v>
       </c>
       <c r="B3" s="3">
@@ -3160,10 +3148,10 @@
       <c r="H3" s="4">
         <v>165</v>
       </c>
-      <c r="I3" s="22">
-        <v>27</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="I3" s="19">
+        <v>27</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -3202,12 +3190,12 @@
       <c r="W3" s="9">
         <v>27.37</v>
       </c>
-      <c r="X3" s="31">
+      <c r="X3" s="28">
         <v>5.04</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>6</v>
       </c>
       <c r="B4" s="3">
@@ -3231,10 +3219,10 @@
       <c r="H4" s="4">
         <v>168</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="19">
         <v>28</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -3273,12 +3261,12 @@
       <c r="W4" s="9">
         <v>27.95</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="28">
         <v>5.3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -3302,10 +3290,10 @@
       <c r="H5" s="4">
         <v>165</v>
       </c>
-      <c r="I5" s="22">
-        <v>27</v>
-      </c>
-      <c r="K5" s="21" t="s">
+      <c r="I5" s="19">
+        <v>27</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -3344,12 +3332,12 @@
       <c r="W5" s="9">
         <v>27.37</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="28">
         <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>6</v>
       </c>
       <c r="B6" s="5">
@@ -3373,10 +3361,10 @@
       <c r="H6" s="4">
         <v>168</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <v>28</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="10" t="s">
@@ -3415,12 +3403,12 @@
       <c r="W6" s="9">
         <v>27.84</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="28">
         <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="5">
@@ -3444,10 +3432,10 @@
       <c r="H7" s="4">
         <v>165</v>
       </c>
-      <c r="I7" s="22">
-        <v>27</v>
-      </c>
-      <c r="K7" s="21" t="s">
+      <c r="I7" s="19">
+        <v>27</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="10" t="s">
@@ -3486,12 +3474,12 @@
       <c r="W7" s="9">
         <v>27.06</v>
       </c>
-      <c r="X7" s="31">
+      <c r="X7" s="28">
         <v>4.91</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="5">
@@ -3515,10 +3503,10 @@
       <c r="H8" s="4">
         <v>168</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>28</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="10" t="s">
@@ -3557,12 +3545,12 @@
       <c r="W8" s="9">
         <v>28.03</v>
       </c>
-      <c r="X8" s="31">
+      <c r="X8" s="28">
         <v>5.3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
       <c r="B9" s="5">
@@ -3586,10 +3574,10 @@
       <c r="H9" s="4">
         <v>165</v>
       </c>
-      <c r="I9" s="22">
-        <v>27</v>
-      </c>
-      <c r="K9" s="21" t="s">
+      <c r="I9" s="19">
+        <v>27</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="10" t="s">
@@ -3628,12 +3616,12 @@
       <c r="W9" s="9">
         <v>27.29</v>
       </c>
-      <c r="X9" s="31">
+      <c r="X9" s="28">
         <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -3657,10 +3645,10 @@
       <c r="H10" s="4">
         <v>249</v>
       </c>
-      <c r="I10" s="22">
-        <v>27</v>
-      </c>
-      <c r="K10" s="23" t="s">
+      <c r="I10" s="19">
+        <v>27</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -3699,12 +3687,12 @@
       <c r="W10" s="9">
         <v>27.44</v>
       </c>
-      <c r="X10" s="31">
+      <c r="X10" s="28">
         <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
       <c r="B11" s="3">
@@ -3728,10 +3716,10 @@
       <c r="H11" s="4">
         <v>246</v>
       </c>
-      <c r="I11" s="22">
-        <v>27</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="I11" s="19">
+        <v>27</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -3770,12 +3758,12 @@
       <c r="W11" s="9">
         <v>25.58</v>
       </c>
-      <c r="X11" s="31">
+      <c r="X11" s="28">
         <v>3.96</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
+      <c r="A12" s="20">
         <v>9</v>
       </c>
       <c r="B12" s="3">
@@ -3799,10 +3787,10 @@
       <c r="H12" s="4">
         <v>249</v>
       </c>
-      <c r="I12" s="22">
-        <v>27</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="I12" s="19">
+        <v>27</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -3841,12 +3829,12 @@
       <c r="W12" s="9">
         <v>27.54</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
       <c r="B13" s="3">
@@ -3870,10 +3858,10 @@
       <c r="H13" s="4">
         <v>246</v>
       </c>
-      <c r="I13" s="22">
-        <v>27</v>
-      </c>
-      <c r="K13" s="23" t="s">
+      <c r="I13" s="19">
+        <v>27</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -3912,12 +3900,12 @@
       <c r="W13" s="9">
         <v>25.33</v>
       </c>
-      <c r="X13" s="31">
+      <c r="X13" s="28">
         <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="23">
+      <c r="A14" s="20">
         <v>9</v>
       </c>
       <c r="B14" s="5">
@@ -3941,10 +3929,10 @@
       <c r="H14" s="4">
         <v>249</v>
       </c>
-      <c r="I14" s="22">
-        <v>27</v>
-      </c>
-      <c r="K14" s="23" t="s">
+      <c r="I14" s="19">
+        <v>27</v>
+      </c>
+      <c r="K14" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="10" t="s">
@@ -3983,12 +3971,12 @@
       <c r="W14" s="9">
         <v>27.25</v>
       </c>
-      <c r="X14" s="31">
+      <c r="X14" s="28">
         <v>5.15</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
+      <c r="A15" s="20">
         <v>9</v>
       </c>
       <c r="B15" s="5">
@@ -4012,10 +4000,10 @@
       <c r="H15" s="4">
         <v>246</v>
       </c>
-      <c r="I15" s="22">
-        <v>27</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="I15" s="19">
+        <v>27</v>
+      </c>
+      <c r="K15" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -4054,12 +4042,12 @@
       <c r="W15" s="9">
         <v>25.41</v>
       </c>
-      <c r="X15" s="31">
+      <c r="X15" s="28">
         <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>9</v>
       </c>
       <c r="B16" s="5">
@@ -4083,10 +4071,10 @@
       <c r="H16" s="4">
         <v>249</v>
       </c>
-      <c r="I16" s="22">
-        <v>27</v>
-      </c>
-      <c r="K16" s="23" t="s">
+      <c r="I16" s="19">
+        <v>27</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L16" s="10" t="s">
@@ -4125,12 +4113,12 @@
       <c r="W16" s="9">
         <v>27.48</v>
       </c>
-      <c r="X16" s="31">
+      <c r="X16" s="28">
         <v>5.07</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
+      <c r="A17" s="20">
         <v>9</v>
       </c>
       <c r="B17" s="5">
@@ -4154,10 +4142,10 @@
       <c r="H17" s="4">
         <v>246</v>
       </c>
-      <c r="I17" s="22">
-        <v>27</v>
-      </c>
-      <c r="K17" s="23" t="s">
+      <c r="I17" s="19">
+        <v>27</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="10" t="s">
@@ -4196,12 +4184,12 @@
       <c r="W17" s="9">
         <v>25.48</v>
       </c>
-      <c r="X17" s="31">
+      <c r="X17" s="28">
         <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>12</v>
       </c>
       <c r="B18" s="3">
@@ -4225,10 +4213,10 @@
       <c r="H18" s="4">
         <v>330</v>
       </c>
-      <c r="I18" s="22">
-        <v>27</v>
-      </c>
-      <c r="K18" s="24" t="s">
+      <c r="I18" s="19">
+        <v>27</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -4267,12 +4255,12 @@
       <c r="W18" s="9">
         <v>26.77</v>
       </c>
-      <c r="X18" s="31">
+      <c r="X18" s="28">
         <v>4.76</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="24">
+      <c r="A19" s="21">
         <v>12</v>
       </c>
       <c r="B19" s="3">
@@ -4296,10 +4284,10 @@
       <c r="H19" s="8">
         <v>301</v>
       </c>
-      <c r="I19" s="25">
-        <v>24</v>
-      </c>
-      <c r="K19" s="24" t="s">
+      <c r="I19" s="22">
+        <v>24</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -4338,12 +4326,12 @@
       <c r="W19" s="9">
         <v>21.87</v>
       </c>
-      <c r="X19" s="31">
+      <c r="X19" s="28">
         <v>2.33</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>12</v>
       </c>
       <c r="B20" s="3">
@@ -4367,10 +4355,10 @@
       <c r="H20" s="4">
         <v>330</v>
       </c>
-      <c r="I20" s="22">
-        <v>27</v>
-      </c>
-      <c r="K20" s="24" t="s">
+      <c r="I20" s="19">
+        <v>27</v>
+      </c>
+      <c r="K20" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -4409,12 +4397,12 @@
       <c r="W20" s="9">
         <v>26.78</v>
       </c>
-      <c r="X20" s="31">
+      <c r="X20" s="28">
         <v>4.87</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="24">
+      <c r="A21" s="21">
         <v>12</v>
       </c>
       <c r="B21" s="3">
@@ -4438,10 +4426,10 @@
       <c r="H21" s="8">
         <v>301</v>
       </c>
-      <c r="I21" s="25">
-        <v>24</v>
-      </c>
-      <c r="K21" s="24" t="s">
+      <c r="I21" s="22">
+        <v>24</v>
+      </c>
+      <c r="K21" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -4480,12 +4468,12 @@
       <c r="W21" s="9">
         <v>21.92</v>
       </c>
-      <c r="X21" s="31">
+      <c r="X21" s="28">
         <v>2.27</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>12</v>
       </c>
       <c r="B22" s="5">
@@ -4509,10 +4497,10 @@
       <c r="H22" s="4">
         <v>330</v>
       </c>
-      <c r="I22" s="22">
-        <v>27</v>
-      </c>
-      <c r="K22" s="24" t="s">
+      <c r="I22" s="19">
+        <v>27</v>
+      </c>
+      <c r="K22" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="10" t="s">
@@ -4551,12 +4539,12 @@
       <c r="W22" s="9">
         <v>26.89</v>
       </c>
-      <c r="X22" s="31">
+      <c r="X22" s="28">
         <v>4.71</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="24">
+      <c r="A23" s="21">
         <v>12</v>
       </c>
       <c r="B23" s="5">
@@ -4580,10 +4568,10 @@
       <c r="H23" s="8">
         <v>301</v>
       </c>
-      <c r="I23" s="25">
-        <v>24</v>
-      </c>
-      <c r="K23" s="24" t="s">
+      <c r="I23" s="22">
+        <v>24</v>
+      </c>
+      <c r="K23" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="10" t="s">
@@ -4622,12 +4610,12 @@
       <c r="W23" s="9">
         <v>21.88</v>
       </c>
-      <c r="X23" s="31">
+      <c r="X23" s="28">
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>12</v>
       </c>
       <c r="B24" s="5">
@@ -4651,10 +4639,10 @@
       <c r="H24" s="4">
         <v>330</v>
       </c>
-      <c r="I24" s="22">
-        <v>27</v>
-      </c>
-      <c r="K24" s="24" t="s">
+      <c r="I24" s="19">
+        <v>27</v>
+      </c>
+      <c r="K24" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="10" t="s">
@@ -4693,109 +4681,109 @@
       <c r="W24" s="9">
         <v>26.79</v>
       </c>
-      <c r="X24" s="31">
+      <c r="X24" s="28">
         <v>4.84</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="26">
+      <c r="A25" s="23">
         <v>12</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="24">
         <v>5</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="25">
         <v>4</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="24">
         <v>9</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="26">
         <v>106.42</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="26">
         <v>41.54</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="26">
         <v>0.84</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="26">
         <v>301</v>
       </c>
-      <c r="I25" s="30">
-        <v>24</v>
-      </c>
-      <c r="K25" s="26" t="s">
+      <c r="I25" s="27">
+        <v>24</v>
+      </c>
+      <c r="K25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="28" t="s">
+      <c r="L25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="33">
+      <c r="N25" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="30">
         <v>108.77</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="30">
         <v>1.86</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="30">
         <v>118.82</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="30">
         <v>76.06</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="30">
         <v>2.63</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="30">
         <v>2.0099999999999998</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="30">
         <v>273.83999999999997</v>
       </c>
-      <c r="V25" s="33">
+      <c r="V25" s="30">
         <v>28.85</v>
       </c>
-      <c r="W25" s="33">
+      <c r="W25" s="30">
         <v>21.87</v>
       </c>
-      <c r="X25" s="34">
+      <c r="X25" s="31">
         <v>2.38</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:24" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="13"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5992,23 +5980,23 @@
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="13"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6020,17 +6008,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3F2D1D-E595-4E39-A6F5-31A260B0C05C}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:L27"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="20.6328125" customWidth="1"/>
     <col min="5" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="10" width="10.6328125" style="14" customWidth="1"/>
+    <col min="9" max="10" width="10.6328125" style="11" customWidth="1"/>
     <col min="11" max="12" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6059,10 +6047,10 @@
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -6094,23 +6082,23 @@
       <c r="G2" s="9">
         <v>0.91</v>
       </c>
-      <c r="H2" s="16" t="b">
+      <c r="H2" s="13" t="b">
         <f>ABS(F2-E2)&lt;=G2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="17" t="b">
+      <c r="I2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=2*G2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="17" t="b">
+      <c r="J2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=3*G2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="b">
+      <c r="K2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.1*F2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="16" t="b">
+      <c r="L2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.15*F2</f>
         <v>1</v>
       </c>
@@ -6137,23 +6125,23 @@
       <c r="G3" s="9">
         <v>1.74</v>
       </c>
-      <c r="H3" s="16" t="b">
+      <c r="H3" s="13" t="b">
         <f t="shared" ref="H3:H25" si="0">ABS(F3-E3)&lt;=G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="17" t="b">
+      <c r="I3" s="14" t="b">
         <f t="shared" ref="I3:I25" si="1">ABS(F3-E3)&lt;=2*G3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="17" t="b">
+      <c r="J3" s="14" t="b">
         <f t="shared" ref="J3:J25" si="2">ABS(F3-E3)&lt;=3*G3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="16" t="b">
+      <c r="K3" s="13" t="b">
         <f t="shared" ref="K3:K25" si="3">ABS(F3-E3)&lt;0.1*F3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="16" t="b">
+      <c r="L3" s="13" t="b">
         <f t="shared" ref="L3:L25" si="4">ABS(F3-E3)&lt;0.15*F3</f>
         <v>1</v>
       </c>
@@ -6180,23 +6168,23 @@
       <c r="G4" s="9">
         <v>0.91</v>
       </c>
-      <c r="H4" s="16" t="b">
+      <c r="H4" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="17" t="b">
+      <c r="I4" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="17" t="b">
+      <c r="J4" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="16" t="b">
+      <c r="K4" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="16" t="b">
+      <c r="L4" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6223,23 +6211,23 @@
       <c r="G5" s="9">
         <v>1.7</v>
       </c>
-      <c r="H5" s="16" t="b">
+      <c r="H5" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="17" t="b">
+      <c r="I5" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="17" t="b">
+      <c r="J5" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="b">
+      <c r="K5" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L5" s="16" t="b">
+      <c r="L5" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6266,23 +6254,23 @@
       <c r="G6" s="9">
         <v>0.91</v>
       </c>
-      <c r="H6" s="16" t="b">
+      <c r="H6" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="17" t="b">
+      <c r="I6" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="17" t="b">
+      <c r="J6" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K6" s="16" t="b">
+      <c r="K6" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="16" t="b">
+      <c r="L6" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6309,23 +6297,23 @@
       <c r="G7" s="9">
         <v>1.77</v>
       </c>
-      <c r="H7" s="16" t="b">
+      <c r="H7" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="17" t="b">
+      <c r="I7" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="17" t="b">
+      <c r="J7" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="16" t="b">
+      <c r="K7" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L7" s="16" t="b">
+      <c r="L7" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6352,23 +6340,23 @@
       <c r="G8" s="9">
         <v>0.91</v>
       </c>
-      <c r="H8" s="16" t="b">
+      <c r="H8" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="17" t="b">
+      <c r="I8" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="17" t="b">
+      <c r="J8" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K8" s="16" t="b">
+      <c r="K8" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L8" s="16" t="b">
+      <c r="L8" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6395,23 +6383,23 @@
       <c r="G9" s="9">
         <v>1.73</v>
       </c>
-      <c r="H9" s="16" t="b">
+      <c r="H9" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="17" t="b">
+      <c r="I9" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="17" t="b">
+      <c r="J9" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="16" t="b">
+      <c r="K9" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L9" s="16" t="b">
+      <c r="L9" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6438,23 +6426,23 @@
       <c r="G10" s="9">
         <v>1.19</v>
       </c>
-      <c r="H10" s="16" t="b">
+      <c r="H10" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="17" t="b">
+      <c r="I10" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="17" t="b">
+      <c r="J10" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="16" t="b">
+      <c r="K10" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L10" s="16" t="b">
+      <c r="L10" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6481,23 +6469,23 @@
       <c r="G11" s="9">
         <v>1.98</v>
       </c>
-      <c r="H11" s="16" t="b">
+      <c r="H11" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="17" t="b">
+      <c r="I11" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="17" t="b">
+      <c r="J11" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="16" t="b">
+      <c r="K11" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L11" s="16" t="b">
+      <c r="L11" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6524,23 +6512,23 @@
       <c r="G12" s="9">
         <v>1.17</v>
       </c>
-      <c r="H12" s="16" t="b">
+      <c r="H12" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="17" t="b">
+      <c r="I12" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="17" t="b">
+      <c r="J12" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="16" t="b">
+      <c r="K12" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L12" s="16" t="b">
+      <c r="L12" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6567,23 +6555,23 @@
       <c r="G13" s="9">
         <v>2</v>
       </c>
-      <c r="H13" s="16" t="b">
+      <c r="H13" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="17" t="b">
+      <c r="I13" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="17" t="b">
+      <c r="J13" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="16" t="b">
+      <c r="K13" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L13" s="16" t="b">
+      <c r="L13" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6610,23 +6598,23 @@
       <c r="G14" s="9">
         <v>1.19</v>
       </c>
-      <c r="H14" s="16" t="b">
+      <c r="H14" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="17" t="b">
+      <c r="I14" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="17" t="b">
+      <c r="J14" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="16" t="b">
+      <c r="K14" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L14" s="16" t="b">
+      <c r="L14" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6653,23 +6641,23 @@
       <c r="G15" s="9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="H15" s="16" t="b">
+      <c r="H15" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="17" t="b">
+      <c r="I15" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="17" t="b">
+      <c r="J15" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="16" t="b">
+      <c r="K15" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L15" s="16" t="b">
+      <c r="L15" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6696,23 +6684,23 @@
       <c r="G16" s="9">
         <v>1.18</v>
       </c>
-      <c r="H16" s="16" t="b">
+      <c r="H16" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="17" t="b">
+      <c r="I16" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="17" t="b">
+      <c r="J16" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="16" t="b">
+      <c r="K16" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L16" s="16" t="b">
+      <c r="L16" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6739,23 +6727,23 @@
       <c r="G17" s="9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="H17" s="16" t="b">
+      <c r="H17" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="17" t="b">
+      <c r="I17" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="17" t="b">
+      <c r="J17" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="16" t="b">
+      <c r="K17" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L17" s="16" t="b">
+      <c r="L17" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6782,23 +6770,23 @@
       <c r="G18" s="9">
         <v>1.51</v>
       </c>
-      <c r="H18" s="16" t="b">
+      <c r="H18" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="17" t="b">
+      <c r="I18" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="17" t="b">
+      <c r="J18" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="16" t="b">
+      <c r="K18" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L18" s="16" t="b">
+      <c r="L18" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6825,23 +6813,23 @@
       <c r="G19" s="9">
         <v>1.91</v>
       </c>
-      <c r="H19" s="16" t="b">
+      <c r="H19" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="17" t="b">
+      <c r="I19" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J19" s="17" t="b">
+      <c r="J19" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K19" s="16" t="b">
+      <c r="K19" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L19" s="16" t="b">
+      <c r="L19" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6868,23 +6856,23 @@
       <c r="G20" s="9">
         <v>1.54</v>
       </c>
-      <c r="H20" s="16" t="b">
+      <c r="H20" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="17" t="b">
+      <c r="I20" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="17" t="b">
+      <c r="J20" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="16" t="b">
+      <c r="K20" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="16" t="b">
+      <c r="L20" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6911,23 +6899,23 @@
       <c r="G21" s="9">
         <v>1.87</v>
       </c>
-      <c r="H21" s="16" t="b">
+      <c r="H21" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="17" t="b">
+      <c r="I21" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J21" s="17" t="b">
+      <c r="J21" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K21" s="16" t="b">
+      <c r="K21" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L21" s="16" t="b">
+      <c r="L21" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6954,23 +6942,23 @@
       <c r="G22" s="9">
         <v>1.5</v>
       </c>
-      <c r="H22" s="16" t="b">
+      <c r="H22" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="17" t="b">
+      <c r="I22" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="17" t="b">
+      <c r="J22" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="16" t="b">
+      <c r="K22" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L22" s="16" t="b">
+      <c r="L22" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -6997,23 +6985,23 @@
       <c r="G23" s="9">
         <v>1.85</v>
       </c>
-      <c r="H23" s="16" t="b">
+      <c r="H23" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="17" t="b">
+      <c r="I23" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J23" s="17" t="b">
+      <c r="J23" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K23" s="16" t="b">
+      <c r="K23" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L23" s="16" t="b">
+      <c r="L23" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -7040,23 +7028,23 @@
       <c r="G24" s="9">
         <v>1.49</v>
       </c>
-      <c r="H24" s="16" t="b">
+      <c r="H24" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="17" t="b">
+      <c r="I24" s="14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="17" t="b">
+      <c r="J24" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="16" t="b">
+      <c r="K24" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L24" s="16" t="b">
+      <c r="L24" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -7083,47 +7071,64 @@
       <c r="G25" s="9">
         <v>1.86</v>
       </c>
-      <c r="H25" s="16" t="b">
+      <c r="H25" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="17" t="b">
+      <c r="I25" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J25" s="17" t="b">
+      <c r="J25" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K25" s="16" t="b">
+      <c r="K25" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L25" s="16" t="b">
+      <c r="L25" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H25">
     <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
@@ -7144,10 +7149,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C8A2C-F393-47AE-88A2-A3030F3B1C64}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7181,10 +7186,10 @@
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -7216,23 +7221,23 @@
       <c r="G2" s="9">
         <v>1.52</v>
       </c>
-      <c r="H2" s="16" t="b">
+      <c r="H2" s="13" t="b">
         <f>ABS(F2-E2)&lt;=G2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="17" t="b">
+      <c r="I2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=2*G2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="17" t="b">
+      <c r="J2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=3*G2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="b">
+      <c r="K2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.1*F2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="16" t="b">
+      <c r="L2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.15*F2</f>
         <v>0</v>
       </c>
@@ -7259,23 +7264,23 @@
       <c r="G3" s="9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H3" s="16" t="b">
+      <c r="H3" s="13" t="b">
         <f t="shared" ref="H3:H25" si="0">ABS(F3-E3)&lt;=G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="17" t="b">
+      <c r="I3" s="14" t="b">
         <f t="shared" ref="I3:I25" si="1">ABS(F3-E3)&lt;=2*G3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="17" t="b">
+      <c r="J3" s="14" t="b">
         <f t="shared" ref="J3:J25" si="2">ABS(F3-E3)&lt;=3*G3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="16" t="b">
+      <c r="K3" s="13" t="b">
         <f t="shared" ref="K3:K25" si="3">ABS(F3-E3)&lt;0.1*F3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="16" t="b">
+      <c r="L3" s="13" t="b">
         <f t="shared" ref="L3:L25" si="4">ABS(F3-E3)&lt;0.15*F3</f>
         <v>0</v>
       </c>
@@ -7302,23 +7307,23 @@
       <c r="G4" s="9">
         <v>1.59</v>
       </c>
-      <c r="H4" s="16" t="b">
+      <c r="H4" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="17" t="b">
+      <c r="I4" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="17" t="b">
+      <c r="J4" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="16" t="b">
+      <c r="K4" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L4" s="16" t="b">
+      <c r="L4" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7345,23 +7350,23 @@
       <c r="G5" s="9">
         <v>8.41</v>
       </c>
-      <c r="H5" s="16" t="b">
+      <c r="H5" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="17" t="b">
+      <c r="I5" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="17" t="b">
+      <c r="J5" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="b">
+      <c r="K5" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="16" t="b">
+      <c r="L5" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7388,23 +7393,23 @@
       <c r="G6" s="9">
         <v>1.48</v>
       </c>
-      <c r="H6" s="16" t="b">
+      <c r="H6" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="17" t="b">
+      <c r="I6" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="17" t="b">
+      <c r="J6" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K6" s="16" t="b">
+      <c r="K6" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="16" t="b">
+      <c r="L6" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7431,23 +7436,23 @@
       <c r="G7" s="9">
         <v>8.07</v>
       </c>
-      <c r="H7" s="16" t="b">
+      <c r="H7" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="17" t="b">
+      <c r="I7" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J7" s="17" t="b">
+      <c r="J7" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="16" t="b">
+      <c r="K7" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="16" t="b">
+      <c r="L7" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7474,23 +7479,23 @@
       <c r="G8" s="9">
         <v>1.62</v>
       </c>
-      <c r="H8" s="16" t="b">
+      <c r="H8" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="17" t="b">
+      <c r="I8" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J8" s="17" t="b">
+      <c r="J8" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K8" s="16" t="b">
+      <c r="K8" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="16" t="b">
+      <c r="L8" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7517,23 +7522,23 @@
       <c r="G9" s="9">
         <v>8.24</v>
       </c>
-      <c r="H9" s="16" t="b">
+      <c r="H9" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="17" t="b">
+      <c r="I9" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="b">
+      <c r="J9" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="16" t="b">
+      <c r="K9" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="16" t="b">
+      <c r="L9" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7560,23 +7565,23 @@
       <c r="G10" s="9">
         <v>5.79</v>
       </c>
-      <c r="H10" s="16" t="b">
+      <c r="H10" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="17" t="b">
+      <c r="I10" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="17" t="b">
+      <c r="J10" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K10" s="16" t="b">
+      <c r="K10" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="16" t="b">
+      <c r="L10" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7603,23 +7608,23 @@
       <c r="G11" s="9">
         <v>39.19</v>
       </c>
-      <c r="H11" s="16" t="b">
+      <c r="H11" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="17" t="b">
+      <c r="I11" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J11" s="17" t="b">
+      <c r="J11" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K11" s="16" t="b">
+      <c r="K11" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="16" t="b">
+      <c r="L11" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7646,23 +7651,23 @@
       <c r="G12" s="9">
         <v>5.64</v>
       </c>
-      <c r="H12" s="16" t="b">
+      <c r="H12" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="17" t="b">
+      <c r="I12" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J12" s="17" t="b">
+      <c r="J12" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K12" s="16" t="b">
+      <c r="K12" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="16" t="b">
+      <c r="L12" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7689,23 +7694,23 @@
       <c r="G13" s="9">
         <v>38.549999999999997</v>
       </c>
-      <c r="H13" s="16" t="b">
+      <c r="H13" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="17" t="b">
+      <c r="I13" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J13" s="17" t="b">
+      <c r="J13" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K13" s="16" t="b">
+      <c r="K13" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="16" t="b">
+      <c r="L13" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7732,23 +7737,23 @@
       <c r="G14" s="9">
         <v>5.54</v>
       </c>
-      <c r="H14" s="16" t="b">
+      <c r="H14" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="17" t="b">
+      <c r="I14" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J14" s="17" t="b">
+      <c r="J14" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K14" s="16" t="b">
+      <c r="K14" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="16" t="b">
+      <c r="L14" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7775,23 +7780,23 @@
       <c r="G15" s="9">
         <v>38.79</v>
       </c>
-      <c r="H15" s="16" t="b">
+      <c r="H15" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="17" t="b">
+      <c r="I15" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J15" s="17" t="b">
+      <c r="J15" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K15" s="16" t="b">
+      <c r="K15" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="16" t="b">
+      <c r="L15" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7818,23 +7823,23 @@
       <c r="G16" s="9">
         <v>5.73</v>
       </c>
-      <c r="H16" s="16" t="b">
+      <c r="H16" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="17" t="b">
+      <c r="I16" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J16" s="17" t="b">
+      <c r="J16" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K16" s="16" t="b">
+      <c r="K16" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="16" t="b">
+      <c r="L16" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7861,23 +7866,23 @@
       <c r="G17" s="9">
         <v>39.58</v>
       </c>
-      <c r="H17" s="16" t="b">
+      <c r="H17" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="17" t="b">
+      <c r="I17" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J17" s="17" t="b">
+      <c r="J17" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K17" s="16" t="b">
+      <c r="K17" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="16" t="b">
+      <c r="L17" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7904,23 +7909,23 @@
       <c r="G18" s="9">
         <v>17.29</v>
       </c>
-      <c r="H18" s="16" t="b">
+      <c r="H18" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="17" t="b">
+      <c r="I18" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J18" s="17" t="b">
+      <c r="J18" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K18" s="16" t="b">
+      <c r="K18" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L18" s="16" t="b">
+      <c r="L18" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7947,23 +7952,23 @@
       <c r="G19" s="9">
         <v>75.819999999999993</v>
       </c>
-      <c r="H19" s="16" t="b">
+      <c r="H19" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="17" t="b">
+      <c r="I19" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J19" s="17" t="b">
+      <c r="J19" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K19" s="16" t="b">
+      <c r="K19" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="16" t="b">
+      <c r="L19" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7990,23 +7995,23 @@
       <c r="G20" s="9">
         <v>18.23</v>
       </c>
-      <c r="H20" s="16" t="b">
+      <c r="H20" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="17" t="b">
+      <c r="I20" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="17" t="b">
+      <c r="J20" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K20" s="16" t="b">
+      <c r="K20" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="16" t="b">
+      <c r="L20" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8033,23 +8038,23 @@
       <c r="G21" s="9">
         <v>75.53</v>
       </c>
-      <c r="H21" s="16" t="b">
+      <c r="H21" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="17" t="b">
+      <c r="I21" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J21" s="17" t="b">
+      <c r="J21" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K21" s="16" t="b">
+      <c r="K21" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="16" t="b">
+      <c r="L21" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8076,23 +8081,23 @@
       <c r="G22" s="9">
         <v>17.36</v>
       </c>
-      <c r="H22" s="16" t="b">
+      <c r="H22" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="17" t="b">
+      <c r="I22" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J22" s="17" t="b">
+      <c r="J22" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K22" s="16" t="b">
+      <c r="K22" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L22" s="16" t="b">
+      <c r="L22" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8119,23 +8124,23 @@
       <c r="G23" s="9">
         <v>74.010000000000005</v>
       </c>
-      <c r="H23" s="16" t="b">
+      <c r="H23" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="17" t="b">
+      <c r="I23" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J23" s="17" t="b">
+      <c r="J23" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K23" s="16" t="b">
+      <c r="K23" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L23" s="16" t="b">
+      <c r="L23" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8162,23 +8167,23 @@
       <c r="G24" s="9">
         <v>16.43</v>
       </c>
-      <c r="H24" s="16" t="b">
+      <c r="H24" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="17" t="b">
+      <c r="I24" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J24" s="17" t="b">
+      <c r="J24" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K24" s="16" t="b">
+      <c r="K24" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L24" s="16" t="b">
+      <c r="L24" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8205,47 +8210,64 @@
       <c r="G25" s="9">
         <v>76.06</v>
       </c>
-      <c r="H25" s="16" t="b">
+      <c r="H25" s="13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="17" t="b">
+      <c r="I25" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J25" s="17" t="b">
+      <c r="J25" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K25" s="16" t="b">
+      <c r="K25" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="16" t="b">
+      <c r="L25" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H25">
     <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
@@ -8266,10 +8288,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1EC4D6-A225-47BC-BD3D-CC02273A5824}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:L27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8303,10 +8325,10 @@
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -8338,23 +8360,23 @@
       <c r="G2" s="9">
         <v>0.04</v>
       </c>
-      <c r="H2" s="16" t="b">
+      <c r="H2" s="13" t="b">
         <f>ABS(F2-E2)&lt;=G2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="17" t="b">
+      <c r="I2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=2*G2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="17" t="b">
+      <c r="J2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=3*G2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="b">
+      <c r="K2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.1*F2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="16" t="b">
+      <c r="L2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.15*F2</f>
         <v>0</v>
       </c>
@@ -8381,23 +8403,23 @@
       <c r="G3" s="9">
         <v>0.23</v>
       </c>
-      <c r="H3" s="16" t="b">
+      <c r="H3" s="13" t="b">
         <f t="shared" ref="H3:H25" si="0">ABS(F3-E3)&lt;=G3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="17" t="b">
+      <c r="I3" s="14" t="b">
         <f t="shared" ref="I3:I25" si="1">ABS(F3-E3)&lt;=2*G3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="17" t="b">
+      <c r="J3" s="14" t="b">
         <f t="shared" ref="J3:J25" si="2">ABS(F3-E3)&lt;=3*G3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="16" t="b">
+      <c r="K3" s="13" t="b">
         <f t="shared" ref="K3:K25" si="3">ABS(F3-E3)&lt;0.1*F3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="16" t="b">
+      <c r="L3" s="13" t="b">
         <f t="shared" ref="L3:L25" si="4">ABS(F3-E3)&lt;0.15*F3</f>
         <v>0</v>
       </c>
@@ -8424,23 +8446,23 @@
       <c r="G4" s="9">
         <v>0.04</v>
       </c>
-      <c r="H4" s="16" t="b">
+      <c r="H4" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="17" t="b">
+      <c r="I4" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="17" t="b">
+      <c r="J4" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="16" t="b">
+      <c r="K4" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L4" s="16" t="b">
+      <c r="L4" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8467,23 +8489,23 @@
       <c r="G5" s="9">
         <v>0.22</v>
       </c>
-      <c r="H5" s="16" t="b">
+      <c r="H5" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="17" t="b">
+      <c r="I5" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="17" t="b">
+      <c r="J5" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="b">
+      <c r="K5" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="16" t="b">
+      <c r="L5" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8510,23 +8532,23 @@
       <c r="G6" s="9">
         <v>0.04</v>
       </c>
-      <c r="H6" s="16" t="b">
+      <c r="H6" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="17" t="b">
+      <c r="I6" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="17" t="b">
+      <c r="J6" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K6" s="16" t="b">
+      <c r="K6" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="16" t="b">
+      <c r="L6" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8553,23 +8575,23 @@
       <c r="G7" s="9">
         <v>0.21</v>
       </c>
-      <c r="H7" s="16" t="b">
+      <c r="H7" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="17" t="b">
+      <c r="I7" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J7" s="17" t="b">
+      <c r="J7" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="16" t="b">
+      <c r="K7" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="16" t="b">
+      <c r="L7" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8596,23 +8618,23 @@
       <c r="G8" s="9">
         <v>0.04</v>
       </c>
-      <c r="H8" s="16" t="b">
+      <c r="H8" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="17" t="b">
+      <c r="I8" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J8" s="17" t="b">
+      <c r="J8" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K8" s="16" t="b">
+      <c r="K8" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="16" t="b">
+      <c r="L8" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8639,23 +8661,23 @@
       <c r="G9" s="9">
         <v>0.21</v>
       </c>
-      <c r="H9" s="16" t="b">
+      <c r="H9" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="17" t="b">
+      <c r="I9" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="b">
+      <c r="J9" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="16" t="b">
+      <c r="K9" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="16" t="b">
+      <c r="L9" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8682,23 +8704,23 @@
       <c r="G10" s="9">
         <v>0.15</v>
       </c>
-      <c r="H10" s="16" t="b">
+      <c r="H10" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="17" t="b">
+      <c r="I10" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="17" t="b">
+      <c r="J10" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K10" s="16" t="b">
+      <c r="K10" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="16" t="b">
+      <c r="L10" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8725,23 +8747,23 @@
       <c r="G11" s="9">
         <v>1.03</v>
       </c>
-      <c r="H11" s="16" t="b">
+      <c r="H11" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="17" t="b">
+      <c r="I11" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J11" s="17" t="b">
+      <c r="J11" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K11" s="16" t="b">
+      <c r="K11" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="16" t="b">
+      <c r="L11" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8768,23 +8790,23 @@
       <c r="G12" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H12" s="16" t="b">
+      <c r="H12" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I12" s="17" t="b">
+      <c r="I12" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J12" s="17" t="b">
+      <c r="J12" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K12" s="16" t="b">
+      <c r="K12" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="16" t="b">
+      <c r="L12" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8811,23 +8833,23 @@
       <c r="G13" s="9">
         <v>1.01</v>
       </c>
-      <c r="H13" s="16" t="b">
+      <c r="H13" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I13" s="17" t="b">
+      <c r="I13" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J13" s="17" t="b">
+      <c r="J13" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K13" s="16" t="b">
+      <c r="K13" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="16" t="b">
+      <c r="L13" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8854,23 +8876,23 @@
       <c r="G14" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H14" s="16" t="b">
+      <c r="H14" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I14" s="17" t="b">
+      <c r="I14" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J14" s="17" t="b">
+      <c r="J14" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K14" s="16" t="b">
+      <c r="K14" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="16" t="b">
+      <c r="L14" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8897,23 +8919,23 @@
       <c r="G15" s="9">
         <v>1.03</v>
       </c>
-      <c r="H15" s="16" t="b">
+      <c r="H15" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="17" t="b">
+      <c r="I15" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J15" s="17" t="b">
+      <c r="J15" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K15" s="16" t="b">
+      <c r="K15" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="16" t="b">
+      <c r="L15" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8940,23 +8962,23 @@
       <c r="G16" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H16" s="16" t="b">
+      <c r="H16" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="17" t="b">
+      <c r="I16" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J16" s="17" t="b">
+      <c r="J16" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K16" s="16" t="b">
+      <c r="K16" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="16" t="b">
+      <c r="L16" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8983,23 +9005,23 @@
       <c r="G17" s="9">
         <v>1.06</v>
       </c>
-      <c r="H17" s="16" t="b">
+      <c r="H17" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="17" t="b">
+      <c r="I17" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J17" s="17" t="b">
+      <c r="J17" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K17" s="16" t="b">
+      <c r="K17" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="16" t="b">
+      <c r="L17" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9026,23 +9048,23 @@
       <c r="G18" s="9">
         <v>0.47</v>
       </c>
-      <c r="H18" s="16" t="b">
+      <c r="H18" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="17" t="b">
+      <c r="I18" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J18" s="17" t="b">
+      <c r="J18" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K18" s="16" t="b">
+      <c r="K18" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L18" s="16" t="b">
+      <c r="L18" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9069,23 +9091,23 @@
       <c r="G19" s="9">
         <v>1.99</v>
       </c>
-      <c r="H19" s="16" t="b">
+      <c r="H19" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I19" s="17" t="b">
+      <c r="I19" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J19" s="17" t="b">
+      <c r="J19" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K19" s="16" t="b">
+      <c r="K19" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="16" t="b">
+      <c r="L19" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9112,23 +9134,23 @@
       <c r="G20" s="9">
         <v>0.5</v>
       </c>
-      <c r="H20" s="16" t="b">
+      <c r="H20" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I20" s="17" t="b">
+      <c r="I20" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="17" t="b">
+      <c r="J20" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K20" s="16" t="b">
+      <c r="K20" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="16" t="b">
+      <c r="L20" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9155,23 +9177,23 @@
       <c r="G21" s="9">
         <v>1.99</v>
       </c>
-      <c r="H21" s="16" t="b">
+      <c r="H21" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="17" t="b">
+      <c r="I21" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J21" s="17" t="b">
+      <c r="J21" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K21" s="16" t="b">
+      <c r="K21" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="16" t="b">
+      <c r="L21" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9198,23 +9220,23 @@
       <c r="G22" s="9">
         <v>0.46</v>
       </c>
-      <c r="H22" s="16" t="b">
+      <c r="H22" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I22" s="17" t="b">
+      <c r="I22" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J22" s="17" t="b">
+      <c r="J22" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K22" s="16" t="b">
+      <c r="K22" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L22" s="16" t="b">
+      <c r="L22" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9241,23 +9263,23 @@
       <c r="G23" s="9">
         <v>1.94</v>
       </c>
-      <c r="H23" s="16" t="b">
+      <c r="H23" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I23" s="17" t="b">
+      <c r="I23" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J23" s="17" t="b">
+      <c r="J23" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K23" s="16" t="b">
+      <c r="K23" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L23" s="16" t="b">
+      <c r="L23" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9284,23 +9306,23 @@
       <c r="G24" s="9">
         <v>0.43</v>
       </c>
-      <c r="H24" s="16" t="b">
+      <c r="H24" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I24" s="17" t="b">
+      <c r="I24" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J24" s="17" t="b">
+      <c r="J24" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K24" s="16" t="b">
+      <c r="K24" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L24" s="16" t="b">
+      <c r="L24" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9327,47 +9349,64 @@
       <c r="G25" s="9">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H25" s="16" t="b">
+      <c r="H25" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="17" t="b">
+      <c r="I25" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J25" s="17" t="b">
+      <c r="J25" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K25" s="16" t="b">
+      <c r="K25" s="13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="16" t="b">
+      <c r="L25" s="13" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H25">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
@@ -9388,10 +9427,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ED7BC0-6BCF-49FB-A430-CD9290608862}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:L27"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9425,10 +9464,10 @@
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -9460,23 +9499,23 @@
       <c r="G2" s="9">
         <v>32.36</v>
       </c>
-      <c r="H2" s="16" t="b">
+      <c r="H2" s="13" t="b">
         <f>ABS(F2-E2)&lt;=G2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="17" t="b">
+      <c r="I2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=2*G2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="17" t="b">
+      <c r="J2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=3*G2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="b">
+      <c r="K2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.1*F2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="16" t="b">
+      <c r="L2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.15*F2</f>
         <v>1</v>
       </c>
@@ -9503,23 +9542,23 @@
       <c r="G3" s="9">
         <v>31.17</v>
       </c>
-      <c r="H3" s="16" t="b">
+      <c r="H3" s="13" t="b">
         <f t="shared" ref="H3:H25" si="0">ABS(F3-E3)&lt;=G3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="17" t="b">
+      <c r="I3" s="14" t="b">
         <f t="shared" ref="I3:I25" si="1">ABS(F3-E3)&lt;=2*G3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="17" t="b">
+      <c r="J3" s="14" t="b">
         <f t="shared" ref="J3:J25" si="2">ABS(F3-E3)&lt;=3*G3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="16" t="b">
+      <c r="K3" s="13" t="b">
         <f t="shared" ref="K3:K25" si="3">ABS(F3-E3)&lt;0.1*F3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="16" t="b">
+      <c r="L3" s="13" t="b">
         <f t="shared" ref="L3:L25" si="4">ABS(F3-E3)&lt;0.15*F3</f>
         <v>1</v>
       </c>
@@ -9546,23 +9585,23 @@
       <c r="G4" s="9">
         <v>32.880000000000003</v>
       </c>
-      <c r="H4" s="16" t="b">
+      <c r="H4" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="17" t="b">
+      <c r="I4" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="17" t="b">
+      <c r="J4" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="16" t="b">
+      <c r="K4" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="16" t="b">
+      <c r="L4" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9589,23 +9628,23 @@
       <c r="G5" s="9">
         <v>31.1</v>
       </c>
-      <c r="H5" s="16" t="b">
+      <c r="H5" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="17" t="b">
+      <c r="I5" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="17" t="b">
+      <c r="J5" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="b">
+      <c r="K5" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L5" s="16" t="b">
+      <c r="L5" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9632,23 +9671,23 @@
       <c r="G6" s="9">
         <v>31.67</v>
       </c>
-      <c r="H6" s="16" t="b">
+      <c r="H6" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="17" t="b">
+      <c r="I6" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="17" t="b">
+      <c r="J6" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K6" s="16" t="b">
+      <c r="K6" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="16" t="b">
+      <c r="L6" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9675,23 +9714,23 @@
       <c r="G7" s="9">
         <v>30.55</v>
       </c>
-      <c r="H7" s="16" t="b">
+      <c r="H7" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="17" t="b">
+      <c r="I7" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J7" s="17" t="b">
+      <c r="J7" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="16" t="b">
+      <c r="K7" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L7" s="16" t="b">
+      <c r="L7" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9718,23 +9757,23 @@
       <c r="G8" s="9">
         <v>32.83</v>
       </c>
-      <c r="H8" s="16" t="b">
+      <c r="H8" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="17" t="b">
+      <c r="I8" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J8" s="17" t="b">
+      <c r="J8" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K8" s="16" t="b">
+      <c r="K8" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L8" s="16" t="b">
+      <c r="L8" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9761,23 +9800,23 @@
       <c r="G9" s="9">
         <v>31.01</v>
       </c>
-      <c r="H9" s="16" t="b">
+      <c r="H9" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="17" t="b">
+      <c r="I9" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="b">
+      <c r="J9" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="16" t="b">
+      <c r="K9" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L9" s="16" t="b">
+      <c r="L9" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9804,23 +9843,23 @@
       <c r="G10" s="9">
         <v>46.34</v>
       </c>
-      <c r="H10" s="16" t="b">
+      <c r="H10" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="17" t="b">
+      <c r="I10" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="17" t="b">
+      <c r="J10" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K10" s="16" t="b">
+      <c r="K10" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L10" s="16" t="b">
+      <c r="L10" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9847,23 +9886,23 @@
       <c r="G11" s="9">
         <v>36.42</v>
       </c>
-      <c r="H11" s="16" t="b">
+      <c r="H11" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="17" t="b">
+      <c r="I11" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J11" s="17" t="b">
+      <c r="J11" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K11" s="16" t="b">
+      <c r="K11" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L11" s="16" t="b">
+      <c r="L11" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9890,23 +9929,23 @@
       <c r="G12" s="9">
         <v>46.22</v>
       </c>
-      <c r="H12" s="16" t="b">
+      <c r="H12" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I12" s="17" t="b">
+      <c r="I12" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J12" s="17" t="b">
+      <c r="J12" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K12" s="16" t="b">
+      <c r="K12" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L12" s="16" t="b">
+      <c r="L12" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9933,23 +9972,23 @@
       <c r="G13" s="9">
         <v>37.479999999999997</v>
       </c>
-      <c r="H13" s="16" t="b">
+      <c r="H13" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I13" s="17" t="b">
+      <c r="I13" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J13" s="17" t="b">
+      <c r="J13" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K13" s="16" t="b">
+      <c r="K13" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L13" s="16" t="b">
+      <c r="L13" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9976,23 +10015,23 @@
       <c r="G14" s="9">
         <v>47.52</v>
       </c>
-      <c r="H14" s="16" t="b">
+      <c r="H14" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I14" s="17" t="b">
+      <c r="I14" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J14" s="17" t="b">
+      <c r="J14" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K14" s="16" t="b">
+      <c r="K14" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L14" s="16" t="b">
+      <c r="L14" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10019,23 +10058,23 @@
       <c r="G15" s="9">
         <v>38.31</v>
       </c>
-      <c r="H15" s="16" t="b">
+      <c r="H15" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="17" t="b">
+      <c r="I15" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J15" s="17" t="b">
+      <c r="J15" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K15" s="16" t="b">
+      <c r="K15" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L15" s="16" t="b">
+      <c r="L15" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10062,23 +10101,23 @@
       <c r="G16" s="9">
         <v>46.7</v>
       </c>
-      <c r="H16" s="16" t="b">
+      <c r="H16" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="17" t="b">
+      <c r="I16" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J16" s="17" t="b">
+      <c r="J16" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K16" s="16" t="b">
+      <c r="K16" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L16" s="16" t="b">
+      <c r="L16" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10105,23 +10144,23 @@
       <c r="G17" s="9">
         <v>38.28</v>
       </c>
-      <c r="H17" s="16" t="b">
+      <c r="H17" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="17" t="b">
+      <c r="I17" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J17" s="17" t="b">
+      <c r="J17" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K17" s="16" t="b">
+      <c r="K17" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L17" s="16" t="b">
+      <c r="L17" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10148,23 +10187,23 @@
       <c r="G18" s="9">
         <v>58.38</v>
       </c>
-      <c r="H18" s="16" t="b">
+      <c r="H18" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="17" t="b">
+      <c r="I18" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J18" s="17" t="b">
+      <c r="J18" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K18" s="16" t="b">
+      <c r="K18" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L18" s="16" t="b">
+      <c r="L18" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10191,23 +10230,23 @@
       <c r="G19" s="9">
         <v>28.42</v>
       </c>
-      <c r="H19" s="16" t="b">
+      <c r="H19" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I19" s="17" t="b">
+      <c r="I19" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J19" s="17" t="b">
+      <c r="J19" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K19" s="16" t="b">
+      <c r="K19" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L19" s="16" t="b">
+      <c r="L19" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10234,23 +10273,23 @@
       <c r="G20" s="9">
         <v>59.75</v>
       </c>
-      <c r="H20" s="16" t="b">
+      <c r="H20" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I20" s="17" t="b">
+      <c r="I20" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="17" t="b">
+      <c r="J20" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K20" s="16" t="b">
+      <c r="K20" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L20" s="16" t="b">
+      <c r="L20" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10277,23 +10316,23 @@
       <c r="G21" s="9">
         <v>27.67</v>
       </c>
-      <c r="H21" s="16" t="b">
+      <c r="H21" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="17" t="b">
+      <c r="I21" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J21" s="17" t="b">
+      <c r="J21" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K21" s="16" t="b">
+      <c r="K21" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L21" s="16" t="b">
+      <c r="L21" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10320,23 +10359,23 @@
       <c r="G22" s="9">
         <v>57.62</v>
       </c>
-      <c r="H22" s="16" t="b">
+      <c r="H22" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I22" s="17" t="b">
+      <c r="I22" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J22" s="17" t="b">
+      <c r="J22" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K22" s="16" t="b">
+      <c r="K22" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L22" s="16" t="b">
+      <c r="L22" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10363,23 +10402,23 @@
       <c r="G23" s="9">
         <v>28.35</v>
       </c>
-      <c r="H23" s="16" t="b">
+      <c r="H23" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I23" s="17" t="b">
+      <c r="I23" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J23" s="17" t="b">
+      <c r="J23" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K23" s="16" t="b">
+      <c r="K23" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L23" s="16" t="b">
+      <c r="L23" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10406,23 +10445,23 @@
       <c r="G24" s="9">
         <v>59.34</v>
       </c>
-      <c r="H24" s="16" t="b">
+      <c r="H24" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I24" s="17" t="b">
+      <c r="I24" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J24" s="17" t="b">
+      <c r="J24" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K24" s="16" t="b">
+      <c r="K24" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L24" s="16" t="b">
+      <c r="L24" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10449,47 +10488,64 @@
       <c r="G25" s="9">
         <v>28.85</v>
       </c>
-      <c r="H25" s="16" t="b">
+      <c r="H25" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="17" t="b">
+      <c r="I25" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J25" s="17" t="b">
+      <c r="J25" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K25" s="16" t="b">
+      <c r="K25" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L25" s="16" t="b">
+      <c r="L25" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H25">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
@@ -10510,10 +10566,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C06334E-8D61-4C71-9D4C-E4F7E189CF39}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10547,10 +10603,10 @@
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -10582,23 +10638,23 @@
       <c r="G2" s="9">
         <v>5.2</v>
       </c>
-      <c r="H2" s="16" t="b">
+      <c r="H2" s="13" t="b">
         <f>ABS(F2-E2)&lt;=G2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="17" t="b">
+      <c r="I2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=2*G2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="17" t="b">
+      <c r="J2" s="14" t="b">
         <f>ABS(F2-E2)&lt;=3*G2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="b">
+      <c r="K2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.1*F2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="16" t="b">
+      <c r="L2" s="13" t="b">
         <f>ABS(F2-E2)&lt;0.15*F2</f>
         <v>1</v>
       </c>
@@ -10625,23 +10681,23 @@
       <c r="G3" s="9">
         <v>5.04</v>
       </c>
-      <c r="H3" s="16" t="b">
+      <c r="H3" s="13" t="b">
         <f t="shared" ref="H3:H25" si="0">ABS(F3-E3)&lt;=G3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="17" t="b">
+      <c r="I3" s="14" t="b">
         <f t="shared" ref="I3:I25" si="1">ABS(F3-E3)&lt;=2*G3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="17" t="b">
+      <c r="J3" s="14" t="b">
         <f t="shared" ref="J3:J25" si="2">ABS(F3-E3)&lt;=3*G3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="16" t="b">
+      <c r="K3" s="13" t="b">
         <f t="shared" ref="K3:K25" si="3">ABS(F3-E3)&lt;0.1*F3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="16" t="b">
+      <c r="L3" s="13" t="b">
         <f t="shared" ref="L3:L25" si="4">ABS(F3-E3)&lt;0.15*F3</f>
         <v>1</v>
       </c>
@@ -10668,23 +10724,23 @@
       <c r="G4" s="9">
         <v>5.3</v>
       </c>
-      <c r="H4" s="16" t="b">
+      <c r="H4" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="17" t="b">
+      <c r="I4" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="17" t="b">
+      <c r="J4" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="16" t="b">
+      <c r="K4" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="16" t="b">
+      <c r="L4" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10711,23 +10767,23 @@
       <c r="G5" s="9">
         <v>5.0199999999999996</v>
       </c>
-      <c r="H5" s="16" t="b">
+      <c r="H5" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="17" t="b">
+      <c r="I5" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="17" t="b">
+      <c r="J5" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="b">
+      <c r="K5" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L5" s="16" t="b">
+      <c r="L5" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10754,23 +10810,23 @@
       <c r="G6" s="9">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H6" s="16" t="b">
+      <c r="H6" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="17" t="b">
+      <c r="I6" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="17" t="b">
+      <c r="J6" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K6" s="16" t="b">
+      <c r="K6" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="16" t="b">
+      <c r="L6" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10797,23 +10853,23 @@
       <c r="G7" s="9">
         <v>4.91</v>
       </c>
-      <c r="H7" s="16" t="b">
+      <c r="H7" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="17" t="b">
+      <c r="I7" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J7" s="17" t="b">
+      <c r="J7" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="16" t="b">
+      <c r="K7" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L7" s="16" t="b">
+      <c r="L7" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10840,23 +10896,23 @@
       <c r="G8" s="9">
         <v>5.3</v>
       </c>
-      <c r="H8" s="16" t="b">
+      <c r="H8" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="17" t="b">
+      <c r="I8" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J8" s="17" t="b">
+      <c r="J8" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K8" s="16" t="b">
+      <c r="K8" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L8" s="16" t="b">
+      <c r="L8" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10883,23 +10939,23 @@
       <c r="G9" s="9">
         <v>5.0199999999999996</v>
       </c>
-      <c r="H9" s="16" t="b">
+      <c r="H9" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="17" t="b">
+      <c r="I9" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="b">
+      <c r="J9" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="16" t="b">
+      <c r="K9" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L9" s="16" t="b">
+      <c r="L9" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10926,23 +10982,23 @@
       <c r="G10" s="9">
         <v>5.0199999999999996</v>
       </c>
-      <c r="H10" s="16" t="b">
+      <c r="H10" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="17" t="b">
+      <c r="I10" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="17" t="b">
+      <c r="J10" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K10" s="16" t="b">
+      <c r="K10" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L10" s="16" t="b">
+      <c r="L10" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10969,23 +11025,23 @@
       <c r="G11" s="9">
         <v>3.96</v>
       </c>
-      <c r="H11" s="16" t="b">
+      <c r="H11" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="17" t="b">
+      <c r="I11" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J11" s="17" t="b">
+      <c r="J11" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K11" s="16" t="b">
+      <c r="K11" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L11" s="16" t="b">
+      <c r="L11" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11012,23 +11068,23 @@
       <c r="G12" s="9">
         <v>5</v>
       </c>
-      <c r="H12" s="16" t="b">
+      <c r="H12" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I12" s="17" t="b">
+      <c r="I12" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J12" s="17" t="b">
+      <c r="J12" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K12" s="16" t="b">
+      <c r="K12" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L12" s="16" t="b">
+      <c r="L12" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11055,23 +11111,23 @@
       <c r="G13" s="9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H13" s="16" t="b">
+      <c r="H13" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I13" s="17" t="b">
+      <c r="I13" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J13" s="17" t="b">
+      <c r="J13" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K13" s="16" t="b">
+      <c r="K13" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L13" s="16" t="b">
+      <c r="L13" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11098,23 +11154,23 @@
       <c r="G14" s="9">
         <v>5.15</v>
       </c>
-      <c r="H14" s="16" t="b">
+      <c r="H14" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I14" s="17" t="b">
+      <c r="I14" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J14" s="17" t="b">
+      <c r="J14" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K14" s="16" t="b">
+      <c r="K14" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L14" s="16" t="b">
+      <c r="L14" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11141,23 +11197,23 @@
       <c r="G15" s="9">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H15" s="16" t="b">
+      <c r="H15" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="17" t="b">
+      <c r="I15" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J15" s="17" t="b">
+      <c r="J15" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K15" s="16" t="b">
+      <c r="K15" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L15" s="16" t="b">
+      <c r="L15" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11184,23 +11240,23 @@
       <c r="G16" s="9">
         <v>5.07</v>
       </c>
-      <c r="H16" s="16" t="b">
+      <c r="H16" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="17" t="b">
+      <c r="I16" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J16" s="17" t="b">
+      <c r="J16" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K16" s="16" t="b">
+      <c r="K16" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L16" s="16" t="b">
+      <c r="L16" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11227,23 +11283,23 @@
       <c r="G17" s="9">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H17" s="16" t="b">
+      <c r="H17" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="17" t="b">
+      <c r="I17" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J17" s="17" t="b">
+      <c r="J17" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K17" s="16" t="b">
+      <c r="K17" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L17" s="16" t="b">
+      <c r="L17" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11270,23 +11326,23 @@
       <c r="G18" s="9">
         <v>4.76</v>
       </c>
-      <c r="H18" s="16" t="b">
+      <c r="H18" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="17" t="b">
+      <c r="I18" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J18" s="17" t="b">
+      <c r="J18" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K18" s="16" t="b">
+      <c r="K18" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L18" s="16" t="b">
+      <c r="L18" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11313,23 +11369,23 @@
       <c r="G19" s="9">
         <v>2.33</v>
       </c>
-      <c r="H19" s="16" t="b">
+      <c r="H19" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I19" s="17" t="b">
+      <c r="I19" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J19" s="17" t="b">
+      <c r="J19" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K19" s="16" t="b">
+      <c r="K19" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L19" s="16" t="b">
+      <c r="L19" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11356,23 +11412,23 @@
       <c r="G20" s="9">
         <v>4.87</v>
       </c>
-      <c r="H20" s="16" t="b">
+      <c r="H20" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I20" s="17" t="b">
+      <c r="I20" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="17" t="b">
+      <c r="J20" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K20" s="16" t="b">
+      <c r="K20" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L20" s="16" t="b">
+      <c r="L20" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11399,23 +11455,23 @@
       <c r="G21" s="9">
         <v>2.27</v>
       </c>
-      <c r="H21" s="16" t="b">
+      <c r="H21" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="17" t="b">
+      <c r="I21" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J21" s="17" t="b">
+      <c r="J21" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K21" s="16" t="b">
+      <c r="K21" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L21" s="16" t="b">
+      <c r="L21" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11442,23 +11498,23 @@
       <c r="G22" s="9">
         <v>4.71</v>
       </c>
-      <c r="H22" s="16" t="b">
+      <c r="H22" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I22" s="17" t="b">
+      <c r="I22" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J22" s="17" t="b">
+      <c r="J22" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K22" s="16" t="b">
+      <c r="K22" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L22" s="16" t="b">
+      <c r="L22" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11485,23 +11541,23 @@
       <c r="G23" s="9">
         <v>2.3199999999999998</v>
       </c>
-      <c r="H23" s="16" t="b">
+      <c r="H23" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I23" s="17" t="b">
+      <c r="I23" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J23" s="17" t="b">
+      <c r="J23" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K23" s="16" t="b">
+      <c r="K23" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L23" s="16" t="b">
+      <c r="L23" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11528,23 +11584,23 @@
       <c r="G24" s="9">
         <v>4.84</v>
       </c>
-      <c r="H24" s="16" t="b">
+      <c r="H24" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I24" s="17" t="b">
+      <c r="I24" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J24" s="17" t="b">
+      <c r="J24" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K24" s="16" t="b">
+      <c r="K24" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L24" s="16" t="b">
+      <c r="L24" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11571,47 +11627,64 @@
       <c r="G25" s="9">
         <v>2.38</v>
       </c>
-      <c r="H25" s="16" t="b">
+      <c r="H25" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="17" t="b">
+      <c r="I25" s="14" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J25" s="17" t="b">
+      <c r="J25" s="14" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K25" s="16" t="b">
+      <c r="K25" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L25" s="16" t="b">
+      <c r="L25" s="13" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H25">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/test_results/verification_calculations_stochastic.xlsx
+++ b/test_results/verification_calculations_stochastic.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DockWorkerRobot\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FDFE18-1FA0-4D68-9F0E-EC8ACC1E1DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2C4D9-4094-45D3-BE12-900B5C5D119A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="8" xr2:uid="{529377D4-A6AB-45AB-8C69-CE68DA65ECAD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="9" xr2:uid="{529377D4-A6AB-45AB-8C69-CE68DA65ECAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="85">
   <si>
     <t>K</t>
   </si>
@@ -180,12 +182,129 @@
   <si>
     <t>Characteristic Distribution : Exponential</t>
   </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>MS_total</t>
+  </si>
+  <si>
+    <t>MWT</t>
+  </si>
+  <si>
+    <t>MQL</t>
+  </si>
+  <si>
+    <t>MCC_total</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Validated</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Stochastic Module (1)</t>
+  </si>
+  <si>
+    <t>Stochastic Module (2)</t>
+  </si>
+  <si>
+    <t>Stochastic Module (3)</t>
+  </si>
+  <si>
+    <t>Stochastic Module (4)</t>
+  </si>
+  <si>
+    <t>Stochastic Module (5)</t>
+  </si>
+  <si>
+    <t>Stochastic Module (6)</t>
+  </si>
+  <si>
+    <t>Deterministic Module (1)</t>
+  </si>
+  <si>
+    <t>Deterministic Module (2)</t>
+  </si>
+  <si>
+    <t>Deterministic Module (3)</t>
+  </si>
+  <si>
+    <t>Deterministic Module (4)</t>
+  </si>
+  <si>
+    <t>Deterministic Module (5)</t>
+  </si>
+  <si>
+    <t>Deterministic Module (6)</t>
+  </si>
+  <si>
+    <t>Deterministic Module (7)</t>
+  </si>
+  <si>
+    <t>Deterministic Module (8)</t>
+  </si>
+  <si>
+    <t>Deterministic Module (9)</t>
+  </si>
+  <si>
+    <t>Stochastic Module (7)</t>
+  </si>
+  <si>
+    <t>Stochastic Module (8)</t>
+  </si>
+  <si>
+    <t>Stochastic Module (9)</t>
+  </si>
+  <si>
+    <t># S_T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t># S_T(u)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>SDS_total</t>
+  </si>
+  <si>
+    <t>SDWT</t>
+  </si>
+  <si>
+    <t>SDCC_total</t>
+  </si>
+  <si>
+    <t>SDQL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +348,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +442,23 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -478,8 +647,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -490,8 +713,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,8 +818,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="14" xfId="11"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="12"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="13">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
@@ -602,7 +849,10 @@
     <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="11" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -767,6 +1017,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1C6CDA-1B2B-4A9C-AF46-9498CEC2F600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="10839450"/>
+          <a:ext cx="8820150" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1066,13 +1382,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F33F35D-F98B-4747-B2C5-B718639BA846}">
-  <dimension ref="A1:I28"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="16" max="19" width="20.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1538,7 +1858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -1567,7 +1887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1596,7 +1916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -1625,7 +1945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>12</v>
       </c>
@@ -1654,7 +1974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>12</v>
       </c>
@@ -1683,7 +2003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -1712,7 +2032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>12</v>
       </c>
@@ -1741,7 +2061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>12</v>
       </c>
@@ -1770,7 +2090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>12</v>
       </c>
@@ -1799,8 +2119,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:19" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="32" t="s">
         <v>30</v>
       </c>
@@ -1813,20 +2133,7747 @@
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>6</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2</v>
+      </c>
+      <c r="O32" s="3">
+        <v>5</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="2">
+        <v>6</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2</v>
+      </c>
+      <c r="O33" s="5">
+        <v>9</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
+      <c r="L34" s="2">
+        <v>6</v>
+      </c>
+      <c r="M34" s="3">
+        <v>3</v>
+      </c>
+      <c r="N34" s="6">
+        <v>4</v>
+      </c>
+      <c r="O34" s="3">
+        <v>5</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="2">
+        <v>6</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3</v>
+      </c>
+      <c r="N35" s="6">
+        <v>4</v>
+      </c>
+      <c r="O35" s="5">
+        <v>9</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="L36" s="2">
+        <v>6</v>
+      </c>
+      <c r="M36" s="5">
+        <v>5</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2</v>
+      </c>
+      <c r="O36" s="3">
+        <v>5</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K37" s="1">
+        <v>6</v>
+      </c>
+      <c r="L37" s="2">
+        <v>6</v>
+      </c>
+      <c r="M37" s="5">
+        <v>5</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2</v>
+      </c>
+      <c r="O37" s="5">
+        <v>9</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K38" s="1">
+        <v>7</v>
+      </c>
+      <c r="L38" s="2">
+        <v>6</v>
+      </c>
+      <c r="M38" s="5">
+        <v>5</v>
+      </c>
+      <c r="N38" s="6">
+        <v>4</v>
+      </c>
+      <c r="O38" s="3">
+        <v>5</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K39" s="1">
+        <v>8</v>
+      </c>
+      <c r="L39" s="2">
+        <v>6</v>
+      </c>
+      <c r="M39" s="5">
+        <v>5</v>
+      </c>
+      <c r="N39" s="6">
+        <v>4</v>
+      </c>
+      <c r="O39" s="5">
+        <v>9</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K40" s="1">
+        <v>9</v>
+      </c>
+      <c r="L40" s="7">
+        <v>9</v>
+      </c>
+      <c r="M40" s="3">
+        <v>3</v>
+      </c>
+      <c r="N40" s="2">
+        <v>2</v>
+      </c>
+      <c r="O40" s="3">
+        <v>5</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K41" s="1">
+        <v>10</v>
+      </c>
+      <c r="L41" s="7">
+        <v>9</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2</v>
+      </c>
+      <c r="O41" s="5">
+        <v>9</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K42" s="1">
+        <v>11</v>
+      </c>
+      <c r="L42" s="7">
+        <v>9</v>
+      </c>
+      <c r="M42" s="3">
+        <v>3</v>
+      </c>
+      <c r="N42" s="6">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3">
+        <v>5</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K43" s="1">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7">
+        <v>9</v>
+      </c>
+      <c r="M43" s="3">
+        <v>3</v>
+      </c>
+      <c r="N43" s="6">
+        <v>4</v>
+      </c>
+      <c r="O43" s="5">
+        <v>9</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K44" s="1">
+        <v>13</v>
+      </c>
+      <c r="L44" s="7">
+        <v>9</v>
+      </c>
+      <c r="M44" s="5">
+        <v>5</v>
+      </c>
+      <c r="N44" s="2">
+        <v>2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>5</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K45" s="1">
+        <v>14</v>
+      </c>
+      <c r="L45" s="7">
+        <v>9</v>
+      </c>
+      <c r="M45" s="5">
+        <v>5</v>
+      </c>
+      <c r="N45" s="2">
+        <v>2</v>
+      </c>
+      <c r="O45" s="5">
+        <v>9</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K46" s="1">
+        <v>15</v>
+      </c>
+      <c r="L46" s="7">
+        <v>9</v>
+      </c>
+      <c r="M46" s="5">
+        <v>5</v>
+      </c>
+      <c r="N46" s="6">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
+        <v>5</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K47" s="1">
+        <v>16</v>
+      </c>
+      <c r="L47" s="7">
+        <v>9</v>
+      </c>
+      <c r="M47" s="5">
+        <v>5</v>
+      </c>
+      <c r="N47" s="6">
+        <v>4</v>
+      </c>
+      <c r="O47" s="5">
+        <v>9</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K48" s="1">
+        <v>17</v>
+      </c>
+      <c r="L48" s="6">
+        <v>12</v>
+      </c>
+      <c r="M48" s="3">
+        <v>3</v>
+      </c>
+      <c r="N48" s="2">
+        <v>2</v>
+      </c>
+      <c r="O48" s="3">
+        <v>5</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K49" s="1">
+        <v>18</v>
+      </c>
+      <c r="L49" s="6">
+        <v>12</v>
+      </c>
+      <c r="M49" s="3">
+        <v>3</v>
+      </c>
+      <c r="N49" s="2">
+        <v>2</v>
+      </c>
+      <c r="O49" s="5">
+        <v>9</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S49" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K50" s="1">
+        <v>19</v>
+      </c>
+      <c r="L50" s="6">
+        <v>12</v>
+      </c>
+      <c r="M50" s="3">
+        <v>3</v>
+      </c>
+      <c r="N50" s="6">
+        <v>4</v>
+      </c>
+      <c r="O50" s="3">
+        <v>5</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K51" s="1">
+        <v>20</v>
+      </c>
+      <c r="L51" s="6">
+        <v>12</v>
+      </c>
+      <c r="M51" s="3">
+        <v>3</v>
+      </c>
+      <c r="N51" s="6">
+        <v>4</v>
+      </c>
+      <c r="O51" s="5">
+        <v>9</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K52" s="1">
+        <v>21</v>
+      </c>
+      <c r="L52" s="6">
+        <v>12</v>
+      </c>
+      <c r="M52" s="5">
+        <v>5</v>
+      </c>
+      <c r="N52" s="2">
+        <v>2</v>
+      </c>
+      <c r="O52" s="3">
+        <v>5</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K53" s="1">
+        <v>22</v>
+      </c>
+      <c r="L53" s="6">
+        <v>12</v>
+      </c>
+      <c r="M53" s="5">
+        <v>5</v>
+      </c>
+      <c r="N53" s="2">
+        <v>2</v>
+      </c>
+      <c r="O53" s="5">
+        <v>9</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S53" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K54" s="1">
+        <v>23</v>
+      </c>
+      <c r="L54" s="6">
+        <v>12</v>
+      </c>
+      <c r="M54" s="5">
+        <v>5</v>
+      </c>
+      <c r="N54" s="6">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
+        <v>5</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K55" s="1">
+        <v>24</v>
+      </c>
+      <c r="L55" s="6">
+        <v>12</v>
+      </c>
+      <c r="M55" s="5">
+        <v>5</v>
+      </c>
+      <c r="N55" s="6">
+        <v>4</v>
+      </c>
+      <c r="O55" s="5">
+        <v>9</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A28:I28"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CB00B-A152-4EE2-BC5E-36FE2E1EA643}">
+  <dimension ref="A1:S39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.6328125" style="36" customWidth="1"/>
+    <col min="2" max="9" width="15.6328125" style="36" customWidth="1"/>
+    <col min="10" max="11" width="12.6328125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="25.6328125" style="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="45">
+        <v>38</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="45">
+        <v>23.55</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="45">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="45">
+        <v>346</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="46"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="45">
+        <v>26.56</v>
+      </c>
+      <c r="C3" s="45">
+        <v>4.66</v>
+      </c>
+      <c r="D3" s="45">
+        <v>25.91</v>
+      </c>
+      <c r="E3" s="45">
+        <v>24.27</v>
+      </c>
+      <c r="F3" s="45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G3" s="45">
+        <v>0.66</v>
+      </c>
+      <c r="H3" s="45">
+        <v>246.81</v>
+      </c>
+      <c r="I3" s="45">
+        <v>43.01</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="46"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="45">
+        <v>31</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="45">
+        <v>44.84</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="45">
+        <v>1.04</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="45">
+        <v>374</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="46"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="45">
+        <v>23.77</v>
+      </c>
+      <c r="C5" s="45">
+        <v>3.24</v>
+      </c>
+      <c r="D5" s="45">
+        <v>75.19</v>
+      </c>
+      <c r="E5" s="45">
+        <v>57.45</v>
+      </c>
+      <c r="F5" s="45">
+        <v>1.67</v>
+      </c>
+      <c r="G5" s="45">
+        <v>1.52</v>
+      </c>
+      <c r="H5" s="45">
+        <v>296.26</v>
+      </c>
+      <c r="I5" s="45">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="45">
+        <v>20</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="45">
+        <v>120</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="45">
+        <v>27.47</v>
+      </c>
+      <c r="C7" s="45">
+        <v>5.15</v>
+      </c>
+      <c r="D7" s="45">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E7" s="45">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0.11</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0.12</v>
+      </c>
+      <c r="H7" s="45">
+        <v>170.13</v>
+      </c>
+      <c r="I7" s="45">
+        <v>31.88</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="45">
+        <v>28</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="45">
+        <v>12.23</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="45">
+        <v>252</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="45">
+        <v>26.39</v>
+      </c>
+      <c r="C9" s="45">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D9" s="45">
+        <v>25.69</v>
+      </c>
+      <c r="E9" s="45">
+        <v>24.55</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0.65</v>
+      </c>
+      <c r="H9" s="45">
+        <v>245.23</v>
+      </c>
+      <c r="I9" s="45">
+        <v>42.09</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="45">
+        <v>30</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="45">
+        <v>17.07</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0.36</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="45">
+        <v>270</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="45">
+        <v>26.53</v>
+      </c>
+      <c r="C11" s="45">
+        <v>4.58</v>
+      </c>
+      <c r="D11" s="45">
+        <v>25.95</v>
+      </c>
+      <c r="E11" s="45">
+        <v>23.76</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0.65</v>
+      </c>
+      <c r="H11" s="45">
+        <v>246.48</v>
+      </c>
+      <c r="I11" s="45">
+        <v>42.14</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="45">
+        <v>24</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="45">
+        <v>12.69</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0.27</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="45">
+        <v>218</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="45">
+        <v>26.38</v>
+      </c>
+      <c r="C13" s="45">
+        <v>4.62</v>
+      </c>
+      <c r="D13" s="45">
+        <v>25.65</v>
+      </c>
+      <c r="E13" s="45">
+        <v>23.74</v>
+      </c>
+      <c r="F13" s="45">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G13" s="45">
+        <v>0.64</v>
+      </c>
+      <c r="H13" s="45">
+        <v>245.07</v>
+      </c>
+      <c r="I13" s="45">
+        <v>42.55</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="45">
+        <v>22</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="45">
+        <v>6.04</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="45">
+        <v>196</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="45">
+        <v>26.52</v>
+      </c>
+      <c r="C15" s="45">
+        <v>4.59</v>
+      </c>
+      <c r="D15" s="45">
+        <v>25.76</v>
+      </c>
+      <c r="E15" s="45">
+        <v>23.33</v>
+      </c>
+      <c r="F15" s="45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G15" s="45">
+        <v>0.62</v>
+      </c>
+      <c r="H15" s="45">
+        <v>246.53</v>
+      </c>
+      <c r="I15" s="45">
+        <v>42.36</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="45">
+        <v>31</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="45">
+        <v>43.97</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="45">
+        <v>1.06</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="45">
+        <v>284</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="45">
+        <v>25.6</v>
+      </c>
+      <c r="C17" s="45">
+        <v>4.03</v>
+      </c>
+      <c r="D17" s="45">
+        <v>44.76</v>
+      </c>
+      <c r="E17" s="45">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="F17" s="45">
+        <v>1</v>
+      </c>
+      <c r="G17" s="45">
+        <v>1.04</v>
+      </c>
+      <c r="H17" s="45">
+        <v>238.54</v>
+      </c>
+      <c r="I17" s="45">
+        <v>37.32</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="45">
+        <v>31</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="45">
+        <v>8.48</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0.19</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="45">
+        <v>277</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="45">
+        <v>27.35</v>
+      </c>
+      <c r="C19" s="45">
+        <v>5.17</v>
+      </c>
+      <c r="D19" s="45">
+        <v>6.14</v>
+      </c>
+      <c r="E19" s="45">
+        <v>5.99</v>
+      </c>
+      <c r="F19" s="45">
+        <v>0.13</v>
+      </c>
+      <c r="G19" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="H19" s="45">
+        <v>252.55</v>
+      </c>
+      <c r="I19" s="45">
+        <v>47.49</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="45">
+        <v>20</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="45">
+        <v>0.85</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="45">
+        <v>120</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="45">
+        <v>27.86</v>
+      </c>
+      <c r="C26" s="45">
+        <v>5.09</v>
+      </c>
+      <c r="D26" s="45">
+        <v>1.44</v>
+      </c>
+      <c r="E26" s="45">
+        <v>1.59</v>
+      </c>
+      <c r="F26" s="45">
+        <v>0.03</v>
+      </c>
+      <c r="G26" s="45">
+        <v>0.04</v>
+      </c>
+      <c r="H26" s="45">
+        <v>172.04</v>
+      </c>
+      <c r="I26" s="45">
+        <v>31.49</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="45">
+        <v>30</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="45">
+        <v>11.91</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="45">
+        <v>0.26</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="45">
+        <v>275</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="45">
+        <v>27.32</v>
+      </c>
+      <c r="C28" s="45">
+        <v>5.03</v>
+      </c>
+      <c r="D28" s="45">
+        <v>6.18</v>
+      </c>
+      <c r="E28" s="45">
+        <v>6.17</v>
+      </c>
+      <c r="F28" s="45">
+        <v>0.13</v>
+      </c>
+      <c r="G28" s="45">
+        <v>0.16</v>
+      </c>
+      <c r="H28" s="45">
+        <v>252.36</v>
+      </c>
+      <c r="I28" s="45">
+        <v>46.4</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="45">
+        <v>25</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="45">
+        <v>5.7</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="45">
+        <v>0.11</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="45">
+        <v>305</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="45">
+        <v>26.92</v>
+      </c>
+      <c r="C30" s="45">
+        <v>4.71</v>
+      </c>
+      <c r="D30" s="45">
+        <v>18.77</v>
+      </c>
+      <c r="E30" s="45">
+        <v>18.12</v>
+      </c>
+      <c r="F30" s="45">
+        <v>0.42</v>
+      </c>
+      <c r="G30" s="45">
+        <v>0.49</v>
+      </c>
+      <c r="H30" s="45">
+        <v>331.79</v>
+      </c>
+      <c r="I30" s="45">
+        <v>57.67</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="45">
+        <v>23</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="45">
+        <v>3.04</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="45">
+        <v>138</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="45">
+        <v>27.42</v>
+      </c>
+      <c r="C32" s="45">
+        <v>4.99</v>
+      </c>
+      <c r="D32" s="45">
+        <v>8.84</v>
+      </c>
+      <c r="E32" s="45">
+        <v>8.27</v>
+      </c>
+      <c r="F32" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="45">
+        <v>0.21</v>
+      </c>
+      <c r="H32" s="45">
+        <v>170.13</v>
+      </c>
+      <c r="I32" s="45">
+        <v>30.94</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" spans="1:19" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="45">
+        <v>30</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="45">
+        <v>0.11</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="45">
+        <v>270</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" spans="1:19" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="45">
+        <v>27.49</v>
+      </c>
+      <c r="C34" s="45">
+        <v>5.17</v>
+      </c>
+      <c r="D34" s="45">
+        <v>6.33</v>
+      </c>
+      <c r="E34" s="45">
+        <v>5.77</v>
+      </c>
+      <c r="F34" s="45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G34" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="H34" s="45">
+        <v>254.03</v>
+      </c>
+      <c r="I34" s="45">
+        <v>47.6</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C39" s="41">
+        <v>41.9</v>
+      </c>
+      <c r="D39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E39">
+        <v>0.11</v>
+      </c>
+      <c r="F39">
+        <v>270</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" s="41">
+        <v>45.51</v>
+      </c>
+      <c r="K39" s="41">
+        <v>1.2</v>
+      </c>
+      <c r="L39">
+        <v>6.33</v>
+      </c>
+      <c r="M39">
+        <v>5.77</v>
+      </c>
+      <c r="N39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O39">
+        <v>0.15</v>
+      </c>
+      <c r="P39">
+        <v>254.03</v>
+      </c>
+      <c r="Q39">
+        <v>47.6</v>
+      </c>
+      <c r="R39">
+        <v>27.49</v>
+      </c>
+      <c r="S39">
+        <v>5.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ABC9D3-06A5-4B98-B32B-041F4B942A74}">
+  <dimension ref="A1:Z82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U47" sqref="E47:U47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.7265625" style="41"/>
+    <col min="12" max="13" width="8.7265625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="E1" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="41">
+        <v>26.3</v>
+      </c>
+      <c r="F2">
+        <v>0.85</v>
+      </c>
+      <c r="G2">
+        <v>0.01</v>
+      </c>
+      <c r="H2">
+        <v>120</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="41">
+        <v>28.63</v>
+      </c>
+      <c r="M2" s="41">
+        <v>0.91</v>
+      </c>
+      <c r="N2">
+        <v>1.44</v>
+      </c>
+      <c r="O2">
+        <v>1.59</v>
+      </c>
+      <c r="P2">
+        <v>0.03</v>
+      </c>
+      <c r="Q2">
+        <v>0.04</v>
+      </c>
+      <c r="R2">
+        <v>172.04</v>
+      </c>
+      <c r="S2">
+        <v>31.49</v>
+      </c>
+      <c r="T2">
+        <v>27.86</v>
+      </c>
+      <c r="U2">
+        <v>5.09</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="41">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G3">
+        <v>0.26</v>
+      </c>
+      <c r="H3">
+        <v>221</v>
+      </c>
+      <c r="I3">
+        <v>37</v>
+      </c>
+      <c r="L3" s="41">
+        <v>43.07</v>
+      </c>
+      <c r="M3" s="41">
+        <v>1.46</v>
+      </c>
+      <c r="N3">
+        <v>5.12</v>
+      </c>
+      <c r="O3">
+        <v>5.18</v>
+      </c>
+      <c r="P3">
+        <v>0.11</v>
+      </c>
+      <c r="Q3">
+        <v>0.13</v>
+      </c>
+      <c r="R3">
+        <v>169.69</v>
+      </c>
+      <c r="S3">
+        <v>31.93</v>
+      </c>
+      <c r="T3">
+        <v>27.4</v>
+      </c>
+      <c r="U3">
+        <v>5.13</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="41">
+        <v>47.59</v>
+      </c>
+      <c r="F4">
+        <v>4.68</v>
+      </c>
+      <c r="G4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H4">
+        <v>132</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="L4" s="41">
+        <v>50.63</v>
+      </c>
+      <c r="M4" s="41">
+        <v>1.72</v>
+      </c>
+      <c r="N4">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="O4">
+        <v>8.1</v>
+      </c>
+      <c r="P4">
+        <v>0.19</v>
+      </c>
+      <c r="Q4">
+        <v>0.21</v>
+      </c>
+      <c r="R4">
+        <v>168.85</v>
+      </c>
+      <c r="S4">
+        <v>31.39</v>
+      </c>
+      <c r="T4">
+        <v>27.23</v>
+      </c>
+      <c r="U4">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="41">
+        <v>26.16</v>
+      </c>
+      <c r="F5">
+        <v>0.42</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>114</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="L5" s="41">
+        <v>28.67</v>
+      </c>
+      <c r="M5" s="41">
+        <v>0.91</v>
+      </c>
+      <c r="N5">
+        <v>1.37</v>
+      </c>
+      <c r="O5">
+        <v>1.39</v>
+      </c>
+      <c r="P5">
+        <v>0.03</v>
+      </c>
+      <c r="Q5">
+        <v>0.03</v>
+      </c>
+      <c r="R5">
+        <v>172.6</v>
+      </c>
+      <c r="S5">
+        <v>32.35</v>
+      </c>
+      <c r="T5">
+        <v>27.92</v>
+      </c>
+      <c r="U5">
+        <v>5.22</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="41">
+        <v>36.26</v>
+      </c>
+      <c r="F6">
+        <v>0.43</v>
+      </c>
+      <c r="G6">
+        <v>0.01</v>
+      </c>
+      <c r="H6">
+        <v>112</v>
+      </c>
+      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="L6" s="41">
+        <v>43.09</v>
+      </c>
+      <c r="M6" s="41">
+        <v>1.45</v>
+      </c>
+      <c r="N6">
+        <v>5.12</v>
+      </c>
+      <c r="O6">
+        <v>4.99</v>
+      </c>
+      <c r="P6">
+        <v>0.11</v>
+      </c>
+      <c r="Q6">
+        <v>0.12</v>
+      </c>
+      <c r="R6">
+        <v>170.84</v>
+      </c>
+      <c r="S6">
+        <v>31.03</v>
+      </c>
+      <c r="T6">
+        <v>27.59</v>
+      </c>
+      <c r="U6">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="41">
+        <v>47.69</v>
+      </c>
+      <c r="F7">
+        <v>3.88</v>
+      </c>
+      <c r="G7">
+        <v>0.09</v>
+      </c>
+      <c r="H7">
+        <v>191</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="L7" s="41">
+        <v>50.65</v>
+      </c>
+      <c r="M7" s="41">
+        <v>1.72</v>
+      </c>
+      <c r="N7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O7">
+        <v>8.02</v>
+      </c>
+      <c r="P7">
+        <v>0.19</v>
+      </c>
+      <c r="Q7">
+        <v>0.21</v>
+      </c>
+      <c r="R7">
+        <v>169.03</v>
+      </c>
+      <c r="S7">
+        <v>31.22</v>
+      </c>
+      <c r="T7">
+        <v>27.25</v>
+      </c>
+      <c r="U7">
+        <v>5.01</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="41">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>174</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
+      <c r="L8" s="41">
+        <v>28.62</v>
+      </c>
+      <c r="M8" s="41">
+        <v>0.92</v>
+      </c>
+      <c r="N8">
+        <v>1.43</v>
+      </c>
+      <c r="O8">
+        <v>1.49</v>
+      </c>
+      <c r="P8">
+        <v>0.03</v>
+      </c>
+      <c r="Q8">
+        <v>0.04</v>
+      </c>
+      <c r="R8">
+        <v>172.11</v>
+      </c>
+      <c r="S8">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="T8">
+        <v>27.89</v>
+      </c>
+      <c r="U8">
+        <v>5.19</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="41">
+        <v>37.33</v>
+      </c>
+      <c r="F9">
+        <v>3.61</v>
+      </c>
+      <c r="G9">
+        <v>0.08</v>
+      </c>
+      <c r="H9">
+        <v>198</v>
+      </c>
+      <c r="I9">
+        <v>33</v>
+      </c>
+      <c r="L9" s="41">
+        <v>43.09</v>
+      </c>
+      <c r="M9" s="41">
+        <v>1.45</v>
+      </c>
+      <c r="N9">
+        <v>5.17</v>
+      </c>
+      <c r="O9">
+        <v>4.97</v>
+      </c>
+      <c r="P9">
+        <v>0.11</v>
+      </c>
+      <c r="Q9">
+        <v>0.12</v>
+      </c>
+      <c r="R9">
+        <v>170.81</v>
+      </c>
+      <c r="S9">
+        <v>31.26</v>
+      </c>
+      <c r="T9">
+        <v>27.58</v>
+      </c>
+      <c r="U9">
+        <v>5.05</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="41">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>6.72</v>
+      </c>
+      <c r="G10">
+        <v>0.12</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="L10" s="41">
+        <v>50.62</v>
+      </c>
+      <c r="M10" s="41">
+        <v>1.72</v>
+      </c>
+      <c r="N10">
+        <v>8.61</v>
+      </c>
+      <c r="O10">
+        <v>8.08</v>
+      </c>
+      <c r="P10">
+        <v>0.19</v>
+      </c>
+      <c r="Q10">
+        <v>0.21</v>
+      </c>
+      <c r="R10">
+        <v>169.28</v>
+      </c>
+      <c r="S10">
+        <v>30.7</v>
+      </c>
+      <c r="T10">
+        <v>27.3</v>
+      </c>
+      <c r="U10">
+        <v>4.95</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="41">
+        <v>26.48</v>
+      </c>
+      <c r="F11">
+        <v>1.68</v>
+      </c>
+      <c r="G11">
+        <v>0.03</v>
+      </c>
+      <c r="H11">
+        <v>149</v>
+      </c>
+      <c r="I11">
+        <v>25</v>
+      </c>
+      <c r="L11" s="41">
+        <v>28.65</v>
+      </c>
+      <c r="M11" s="41">
+        <v>0.89</v>
+      </c>
+      <c r="N11">
+        <v>1.39</v>
+      </c>
+      <c r="O11">
+        <v>1.48</v>
+      </c>
+      <c r="P11">
+        <v>0.03</v>
+      </c>
+      <c r="Q11">
+        <v>0.04</v>
+      </c>
+      <c r="R11">
+        <v>172.91</v>
+      </c>
+      <c r="S11">
+        <v>31.96</v>
+      </c>
+      <c r="T11">
+        <v>27.98</v>
+      </c>
+      <c r="U11">
+        <v>5.16</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="41">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>123</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="L12" s="41">
+        <v>43.09</v>
+      </c>
+      <c r="M12" s="41">
+        <v>1.48</v>
+      </c>
+      <c r="N12">
+        <v>5.24</v>
+      </c>
+      <c r="O12">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="P12">
+        <v>0.11</v>
+      </c>
+      <c r="Q12">
+        <v>0.13</v>
+      </c>
+      <c r="R12">
+        <v>169.91</v>
+      </c>
+      <c r="S12">
+        <v>32.08</v>
+      </c>
+      <c r="T12">
+        <v>27.44</v>
+      </c>
+      <c r="U12">
+        <v>5.18</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="41">
+        <v>48.81</v>
+      </c>
+      <c r="F13">
+        <v>7.53</v>
+      </c>
+      <c r="G13">
+        <v>0.17</v>
+      </c>
+      <c r="H13">
+        <v>192</v>
+      </c>
+      <c r="I13">
+        <v>32</v>
+      </c>
+      <c r="L13" s="41">
+        <v>50.6</v>
+      </c>
+      <c r="M13" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="N13">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="O13">
+        <v>8.32</v>
+      </c>
+      <c r="P13">
+        <v>0.19</v>
+      </c>
+      <c r="Q13">
+        <v>0.22</v>
+      </c>
+      <c r="R13">
+        <v>169.49</v>
+      </c>
+      <c r="S13">
+        <v>30.98</v>
+      </c>
+      <c r="T13">
+        <v>27.33</v>
+      </c>
+      <c r="U13">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="41">
+        <v>26.16</v>
+      </c>
+      <c r="F14">
+        <v>0.74</v>
+      </c>
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+      <c r="H14">
+        <v>114</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="L14" s="41">
+        <v>28.63</v>
+      </c>
+      <c r="M14" s="41">
+        <v>0.92</v>
+      </c>
+      <c r="N14">
+        <v>1.43</v>
+      </c>
+      <c r="O14">
+        <v>1.53</v>
+      </c>
+      <c r="P14">
+        <v>0.03</v>
+      </c>
+      <c r="Q14">
+        <v>0.04</v>
+      </c>
+      <c r="R14">
+        <v>172.16</v>
+      </c>
+      <c r="S14">
+        <v>32.04</v>
+      </c>
+      <c r="T14">
+        <v>27.89</v>
+      </c>
+      <c r="U14">
+        <v>5.18</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="41">
+        <v>36.25</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0</v>
+      </c>
+      <c r="H15" s="37">
+        <v>120</v>
+      </c>
+      <c r="I15" s="37">
+        <v>20</v>
+      </c>
+      <c r="J15" s="37">
+        <v>3</v>
+      </c>
+      <c r="L15" s="41">
+        <v>43.06</v>
+      </c>
+      <c r="M15" s="41">
+        <v>1.49</v>
+      </c>
+      <c r="N15">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="O15">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="P15">
+        <v>0.11</v>
+      </c>
+      <c r="Q15">
+        <v>0.12</v>
+      </c>
+      <c r="R15">
+        <v>170.13</v>
+      </c>
+      <c r="S15">
+        <v>31.88</v>
+      </c>
+      <c r="T15">
+        <v>27.47</v>
+      </c>
+      <c r="U15">
+        <v>5.15</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="41">
+        <v>48.72</v>
+      </c>
+      <c r="F16">
+        <v>10.18</v>
+      </c>
+      <c r="G16">
+        <v>0.27</v>
+      </c>
+      <c r="H16">
+        <v>216</v>
+      </c>
+      <c r="I16">
+        <v>36</v>
+      </c>
+      <c r="L16" s="41">
+        <v>50.69</v>
+      </c>
+      <c r="M16" s="41">
+        <v>1.74</v>
+      </c>
+      <c r="N16">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="O16">
+        <v>8.19</v>
+      </c>
+      <c r="P16">
+        <v>0.2</v>
+      </c>
+      <c r="Q16">
+        <v>0.21</v>
+      </c>
+      <c r="R16">
+        <v>170.55</v>
+      </c>
+      <c r="S16">
+        <v>31.53</v>
+      </c>
+      <c r="T16">
+        <v>27.49</v>
+      </c>
+      <c r="U16">
+        <v>5.08</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="41">
+        <v>26.35</v>
+      </c>
+      <c r="F17">
+        <v>0.92</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17">
+        <v>156</v>
+      </c>
+      <c r="I17">
+        <v>26</v>
+      </c>
+      <c r="L17" s="41">
+        <v>28.65</v>
+      </c>
+      <c r="M17" s="41">
+        <v>0.92</v>
+      </c>
+      <c r="N17">
+        <v>1.43</v>
+      </c>
+      <c r="O17">
+        <v>1.56</v>
+      </c>
+      <c r="P17">
+        <v>0.03</v>
+      </c>
+      <c r="Q17">
+        <v>0.04</v>
+      </c>
+      <c r="R17">
+        <v>172.48</v>
+      </c>
+      <c r="S17">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="T17">
+        <v>27.93</v>
+      </c>
+      <c r="U17">
+        <v>5.22</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="41">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.73</v>
+      </c>
+      <c r="G18">
+        <v>0.02</v>
+      </c>
+      <c r="H18">
+        <v>177</v>
+      </c>
+      <c r="I18">
+        <v>29</v>
+      </c>
+      <c r="L18" s="41">
+        <v>43.08</v>
+      </c>
+      <c r="M18" s="41">
+        <v>1.44</v>
+      </c>
+      <c r="N18">
+        <v>5.18</v>
+      </c>
+      <c r="O18">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="P18">
+        <v>0.11</v>
+      </c>
+      <c r="Q18">
+        <v>0.13</v>
+      </c>
+      <c r="R18">
+        <v>170.41</v>
+      </c>
+      <c r="S18">
+        <v>31.61</v>
+      </c>
+      <c r="T18">
+        <v>27.52</v>
+      </c>
+      <c r="U18">
+        <v>5.13</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="41">
+        <v>48.03</v>
+      </c>
+      <c r="F19">
+        <v>3.79</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>190</v>
+      </c>
+      <c r="I19">
+        <v>31</v>
+      </c>
+      <c r="L19" s="41">
+        <v>50.61</v>
+      </c>
+      <c r="M19" s="41">
+        <v>1.72</v>
+      </c>
+      <c r="N19">
+        <v>8.84</v>
+      </c>
+      <c r="O19">
+        <v>8.25</v>
+      </c>
+      <c r="P19">
+        <v>0.19</v>
+      </c>
+      <c r="Q19">
+        <v>0.21</v>
+      </c>
+      <c r="R19">
+        <v>169.46</v>
+      </c>
+      <c r="S19">
+        <v>31.83</v>
+      </c>
+      <c r="T19">
+        <v>27.32</v>
+      </c>
+      <c r="U19">
+        <v>5.14</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+      <c r="Z19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="41">
+        <v>26.57</v>
+      </c>
+      <c r="F20">
+        <v>1.23</v>
+      </c>
+      <c r="G20">
+        <v>0.03</v>
+      </c>
+      <c r="H20">
+        <v>182</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="L20" s="41">
+        <v>28.63</v>
+      </c>
+      <c r="M20" s="41">
+        <v>0.91</v>
+      </c>
+      <c r="N20">
+        <v>1.48</v>
+      </c>
+      <c r="O20">
+        <v>1.58</v>
+      </c>
+      <c r="P20">
+        <v>0.03</v>
+      </c>
+      <c r="Q20">
+        <v>0.04</v>
+      </c>
+      <c r="R20">
+        <v>171.78</v>
+      </c>
+      <c r="S20">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="T20">
+        <v>27.82</v>
+      </c>
+      <c r="U20">
+        <v>5.26</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="41">
+        <v>37.29</v>
+      </c>
+      <c r="F21">
+        <v>2.88</v>
+      </c>
+      <c r="G21">
+        <v>0.06</v>
+      </c>
+      <c r="H21">
+        <v>189</v>
+      </c>
+      <c r="I21">
+        <v>31</v>
+      </c>
+      <c r="L21" s="41">
+        <v>43</v>
+      </c>
+      <c r="M21" s="41">
+        <v>1.48</v>
+      </c>
+      <c r="N21">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O21">
+        <v>5.18</v>
+      </c>
+      <c r="P21">
+        <v>0.11</v>
+      </c>
+      <c r="Q21">
+        <v>0.13</v>
+      </c>
+      <c r="R21">
+        <v>169.79</v>
+      </c>
+      <c r="S21">
+        <v>32.03</v>
+      </c>
+      <c r="T21">
+        <v>27.45</v>
+      </c>
+      <c r="U21">
+        <v>5.18</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="41">
+        <v>47.04</v>
+      </c>
+      <c r="F22">
+        <v>3.04</v>
+      </c>
+      <c r="G22">
+        <v>0.05</v>
+      </c>
+      <c r="H22">
+        <v>138</v>
+      </c>
+      <c r="I22">
+        <v>23</v>
+      </c>
+      <c r="L22" s="41">
+        <v>50.65</v>
+      </c>
+      <c r="M22" s="41">
+        <v>1.76</v>
+      </c>
+      <c r="N22">
+        <v>8.84</v>
+      </c>
+      <c r="O22">
+        <v>8.27</v>
+      </c>
+      <c r="P22">
+        <v>0.2</v>
+      </c>
+      <c r="Q22">
+        <v>0.21</v>
+      </c>
+      <c r="R22">
+        <v>170.13</v>
+      </c>
+      <c r="S22">
+        <v>30.94</v>
+      </c>
+      <c r="T22">
+        <v>27.42</v>
+      </c>
+      <c r="U22">
+        <v>4.99</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="41">
+        <v>26.21</v>
+      </c>
+      <c r="F23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.01</v>
+      </c>
+      <c r="H23">
+        <v>168</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="L23" s="41">
+        <v>28.63</v>
+      </c>
+      <c r="M23" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="N23">
+        <v>1.41</v>
+      </c>
+      <c r="O23">
+        <v>1.47</v>
+      </c>
+      <c r="P23">
+        <v>0.03</v>
+      </c>
+      <c r="Q23">
+        <v>0.03</v>
+      </c>
+      <c r="R23">
+        <v>172.23</v>
+      </c>
+      <c r="S23">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="T23">
+        <v>27.89</v>
+      </c>
+      <c r="U23">
+        <v>5.24</v>
+      </c>
+      <c r="W23">
+        <v>6</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="41">
+        <v>36.22</v>
+      </c>
+      <c r="F24">
+        <v>0.12</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>139</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="L24" s="41">
+        <v>43.13</v>
+      </c>
+      <c r="M24" s="41">
+        <v>1.45</v>
+      </c>
+      <c r="N24">
+        <v>4.96</v>
+      </c>
+      <c r="O24">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="P24">
+        <v>0.11</v>
+      </c>
+      <c r="Q24">
+        <v>0.12</v>
+      </c>
+      <c r="R24">
+        <v>170.48</v>
+      </c>
+      <c r="S24">
+        <v>31.83</v>
+      </c>
+      <c r="T24">
+        <v>27.49</v>
+      </c>
+      <c r="U24">
+        <v>5.14</v>
+      </c>
+      <c r="W24">
+        <v>6</v>
+      </c>
+      <c r="X24">
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="41">
+        <v>48.53</v>
+      </c>
+      <c r="F25">
+        <v>7.25</v>
+      </c>
+      <c r="G25">
+        <v>0.18</v>
+      </c>
+      <c r="H25">
+        <v>203</v>
+      </c>
+      <c r="I25">
+        <v>34</v>
+      </c>
+      <c r="L25" s="41">
+        <v>50.68</v>
+      </c>
+      <c r="M25" s="41">
+        <v>1.73</v>
+      </c>
+      <c r="N25">
+        <v>9.08</v>
+      </c>
+      <c r="O25">
+        <v>9.17</v>
+      </c>
+      <c r="P25">
+        <v>0.2</v>
+      </c>
+      <c r="Q25">
+        <v>0.24</v>
+      </c>
+      <c r="R25">
+        <v>169.66</v>
+      </c>
+      <c r="S25">
+        <v>31.32</v>
+      </c>
+      <c r="T25">
+        <v>27.34</v>
+      </c>
+      <c r="U25">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="41">
+        <v>26.58</v>
+      </c>
+      <c r="F26">
+        <v>3.35</v>
+      </c>
+      <c r="G26">
+        <v>0.09</v>
+      </c>
+      <c r="H26">
+        <v>215</v>
+      </c>
+      <c r="I26">
+        <v>36</v>
+      </c>
+      <c r="L26" s="41">
+        <v>28.65</v>
+      </c>
+      <c r="M26" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="N26">
+        <v>1.43</v>
+      </c>
+      <c r="O26">
+        <v>1.56</v>
+      </c>
+      <c r="P26">
+        <v>0.03</v>
+      </c>
+      <c r="Q26">
+        <v>0.04</v>
+      </c>
+      <c r="R26">
+        <v>171.88</v>
+      </c>
+      <c r="S26">
+        <v>32.24</v>
+      </c>
+      <c r="T26">
+        <v>27.82</v>
+      </c>
+      <c r="U26">
+        <v>5.2</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+      <c r="Z26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="41">
+        <v>36.22</v>
+      </c>
+      <c r="F27">
+        <v>0.43</v>
+      </c>
+      <c r="G27">
+        <v>0.01</v>
+      </c>
+      <c r="H27">
+        <v>136</v>
+      </c>
+      <c r="I27">
+        <v>23</v>
+      </c>
+      <c r="L27" s="41">
+        <v>43.07</v>
+      </c>
+      <c r="M27" s="41">
+        <v>1.47</v>
+      </c>
+      <c r="N27">
+        <v>5.14</v>
+      </c>
+      <c r="O27">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="P27">
+        <v>0.11</v>
+      </c>
+      <c r="Q27">
+        <v>0.13</v>
+      </c>
+      <c r="R27">
+        <v>170.08</v>
+      </c>
+      <c r="S27">
+        <v>31.65</v>
+      </c>
+      <c r="T27">
+        <v>27.46</v>
+      </c>
+      <c r="U27">
+        <v>5.08</v>
+      </c>
+      <c r="W27">
+        <v>6</v>
+      </c>
+      <c r="X27">
+        <v>5</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="41">
+        <v>48.69</v>
+      </c>
+      <c r="F28">
+        <v>17.52</v>
+      </c>
+      <c r="G28">
+        <v>0.33</v>
+      </c>
+      <c r="H28">
+        <v>157</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+      <c r="L28" s="41">
+        <v>50.62</v>
+      </c>
+      <c r="M28" s="41">
+        <v>1.76</v>
+      </c>
+      <c r="N28">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="O28">
+        <v>8.67</v>
+      </c>
+      <c r="P28">
+        <v>0.2</v>
+      </c>
+      <c r="Q28">
+        <v>0.23</v>
+      </c>
+      <c r="R28">
+        <v>168.94</v>
+      </c>
+      <c r="S28">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="T28">
+        <v>27.23</v>
+      </c>
+      <c r="U28">
+        <v>5.19</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+      <c r="Z28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="41">
+        <v>41.89</v>
+      </c>
+      <c r="F29">
+        <v>5.03</v>
+      </c>
+      <c r="G29">
+        <v>0.12</v>
+      </c>
+      <c r="H29">
+        <v>315</v>
+      </c>
+      <c r="I29">
+        <v>35</v>
+      </c>
+      <c r="L29" s="41">
+        <v>45.49</v>
+      </c>
+      <c r="M29" s="41">
+        <v>1.2</v>
+      </c>
+      <c r="N29">
+        <v>6.04</v>
+      </c>
+      <c r="O29">
+        <v>5.56</v>
+      </c>
+      <c r="P29">
+        <v>0.13</v>
+      </c>
+      <c r="Q29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R29">
+        <v>253.87</v>
+      </c>
+      <c r="S29">
+        <v>47.22</v>
+      </c>
+      <c r="T29">
+        <v>27.48</v>
+      </c>
+      <c r="U29">
+        <v>5.13</v>
+      </c>
+      <c r="W29">
+        <v>9</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="41">
+        <v>57.7</v>
+      </c>
+      <c r="F30">
+        <v>2.12</v>
+      </c>
+      <c r="G30">
+        <v>0.04</v>
+      </c>
+      <c r="H30">
+        <v>208</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
+      <c r="L30" s="41">
+        <v>68.66</v>
+      </c>
+      <c r="M30" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="N30">
+        <v>25.48</v>
+      </c>
+      <c r="O30">
+        <v>23.84</v>
+      </c>
+      <c r="P30">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q30">
+        <v>0.63</v>
+      </c>
+      <c r="R30">
+        <v>246.06</v>
+      </c>
+      <c r="S30">
+        <v>43.28</v>
+      </c>
+      <c r="T30">
+        <v>26.5</v>
+      </c>
+      <c r="U30">
+        <v>4.7</v>
+      </c>
+      <c r="W30">
+        <v>9</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="41">
+        <v>75.81</v>
+      </c>
+      <c r="F31">
+        <v>11.7</v>
+      </c>
+      <c r="G31">
+        <v>0.19</v>
+      </c>
+      <c r="H31">
+        <v>190</v>
+      </c>
+      <c r="I31">
+        <v>21</v>
+      </c>
+      <c r="L31" s="41">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="M31" s="41">
+        <v>1.96</v>
+      </c>
+      <c r="N31">
+        <v>43.96</v>
+      </c>
+      <c r="O31">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="P31">
+        <v>0.98</v>
+      </c>
+      <c r="Q31">
+        <v>1.03</v>
+      </c>
+      <c r="R31">
+        <v>237.44</v>
+      </c>
+      <c r="S31">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="T31">
+        <v>25.47</v>
+      </c>
+      <c r="U31">
+        <v>4.07</v>
+      </c>
+      <c r="W31">
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="41">
+        <v>41.6</v>
+      </c>
+      <c r="F32">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G32">
+        <v>0.05</v>
+      </c>
+      <c r="H32">
+        <v>270</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="L32" s="41">
+        <v>45.44</v>
+      </c>
+      <c r="M32" s="41">
+        <v>1.19</v>
+      </c>
+      <c r="N32">
+        <v>6.08</v>
+      </c>
+      <c r="O32">
+        <v>5.67</v>
+      </c>
+      <c r="P32">
+        <v>0.13</v>
+      </c>
+      <c r="Q32">
+        <v>0.15</v>
+      </c>
+      <c r="R32">
+        <v>252.04</v>
+      </c>
+      <c r="S32">
+        <v>46.52</v>
+      </c>
+      <c r="T32">
+        <v>27.29</v>
+      </c>
+      <c r="U32">
+        <v>5.05</v>
+      </c>
+      <c r="W32">
+        <v>9</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>3</v>
+      </c>
+      <c r="Z32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A33" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="41">
+        <v>60</v>
+      </c>
+      <c r="F33" s="38">
+        <v>17.07</v>
+      </c>
+      <c r="G33" s="38">
+        <v>0.36</v>
+      </c>
+      <c r="H33" s="38">
+        <v>270</v>
+      </c>
+      <c r="I33" s="38">
+        <v>30</v>
+      </c>
+      <c r="J33" s="38">
+        <v>5</v>
+      </c>
+      <c r="L33" s="41">
+        <v>68.790000000000006</v>
+      </c>
+      <c r="M33" s="41">
+        <v>1.74</v>
+      </c>
+      <c r="N33">
+        <v>25.95</v>
+      </c>
+      <c r="O33">
+        <v>23.76</v>
+      </c>
+      <c r="P33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q33">
+        <v>0.65</v>
+      </c>
+      <c r="R33">
+        <v>246.48</v>
+      </c>
+      <c r="S33">
+        <v>42.14</v>
+      </c>
+      <c r="T33">
+        <v>26.53</v>
+      </c>
+      <c r="U33">
+        <v>4.58</v>
+      </c>
+      <c r="W33">
+        <v>9</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="41">
+        <v>77.38</v>
+      </c>
+      <c r="F34">
+        <v>35.54</v>
+      </c>
+      <c r="G34">
+        <v>0.64</v>
+      </c>
+      <c r="H34">
+        <v>220</v>
+      </c>
+      <c r="I34">
+        <v>24</v>
+      </c>
+      <c r="L34" s="41">
+        <v>80.08</v>
+      </c>
+      <c r="M34" s="41">
+        <v>1.99</v>
+      </c>
+      <c r="N34">
+        <v>44.38</v>
+      </c>
+      <c r="O34">
+        <v>38.26</v>
+      </c>
+      <c r="P34">
+        <v>0.99</v>
+      </c>
+      <c r="Q34">
+        <v>1.01</v>
+      </c>
+      <c r="R34">
+        <v>239.53</v>
+      </c>
+      <c r="S34">
+        <v>36.85</v>
+      </c>
+      <c r="T34">
+        <v>25.7</v>
+      </c>
+      <c r="U34">
+        <v>3.98</v>
+      </c>
+      <c r="W34">
+        <v>9</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="41">
+        <v>41.93</v>
+      </c>
+      <c r="F35">
+        <v>11.91</v>
+      </c>
+      <c r="G35">
+        <v>0.26</v>
+      </c>
+      <c r="H35">
+        <v>275</v>
+      </c>
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="L35" s="41">
+        <v>45.45</v>
+      </c>
+      <c r="M35" s="41">
+        <v>1.18</v>
+      </c>
+      <c r="N35">
+        <v>6.18</v>
+      </c>
+      <c r="O35">
+        <v>6.17</v>
+      </c>
+      <c r="P35">
+        <v>0.13</v>
+      </c>
+      <c r="Q35">
+        <v>0.16</v>
+      </c>
+      <c r="R35">
+        <v>252.36</v>
+      </c>
+      <c r="S35">
+        <v>46.4</v>
+      </c>
+      <c r="T35">
+        <v>27.32</v>
+      </c>
+      <c r="U35">
+        <v>5.03</v>
+      </c>
+      <c r="W35">
+        <v>9</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="41">
+        <v>59.29</v>
+      </c>
+      <c r="F36">
+        <v>11.73</v>
+      </c>
+      <c r="G36">
+        <v>0.31</v>
+      </c>
+      <c r="H36">
+        <v>223</v>
+      </c>
+      <c r="I36">
+        <v>24</v>
+      </c>
+      <c r="L36" s="41">
+        <v>68.819999999999993</v>
+      </c>
+      <c r="M36" s="41">
+        <v>1.73</v>
+      </c>
+      <c r="N36">
+        <v>26.55</v>
+      </c>
+      <c r="O36">
+        <v>24.98</v>
+      </c>
+      <c r="P36">
+        <v>0.6</v>
+      </c>
+      <c r="Q36">
+        <v>0.68</v>
+      </c>
+      <c r="R36">
+        <v>247.06</v>
+      </c>
+      <c r="S36">
+        <v>42.8</v>
+      </c>
+      <c r="T36">
+        <v>26.58</v>
+      </c>
+      <c r="U36">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="W36">
+        <v>9</v>
+      </c>
+      <c r="X36">
+        <v>3</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+      <c r="Z36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="41">
+        <v>75.33</v>
+      </c>
+      <c r="F37">
+        <v>12.7</v>
+      </c>
+      <c r="G37">
+        <v>0.33</v>
+      </c>
+      <c r="H37">
+        <v>191</v>
+      </c>
+      <c r="I37">
+        <v>21</v>
+      </c>
+      <c r="L37" s="41">
+        <v>80.08</v>
+      </c>
+      <c r="M37" s="41">
+        <v>1.98</v>
+      </c>
+      <c r="N37">
+        <v>44.83</v>
+      </c>
+      <c r="O37">
+        <v>38.97</v>
+      </c>
+      <c r="P37">
+        <v>1.01</v>
+      </c>
+      <c r="Q37">
+        <v>1.04</v>
+      </c>
+      <c r="R37">
+        <v>237.29</v>
+      </c>
+      <c r="S37">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="T37">
+        <v>25.45</v>
+      </c>
+      <c r="U37">
+        <v>4.07</v>
+      </c>
+      <c r="W37">
+        <v>9</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37">
+        <v>4</v>
+      </c>
+      <c r="Z37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="41">
+        <v>41.93</v>
+      </c>
+      <c r="F38">
+        <v>3.28</v>
+      </c>
+      <c r="G38">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H38">
+        <v>261</v>
+      </c>
+      <c r="I38">
+        <v>29</v>
+      </c>
+      <c r="L38" s="41">
+        <v>45.48</v>
+      </c>
+      <c r="M38" s="41">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>5.31</v>
+      </c>
+      <c r="P38">
+        <v>0.13</v>
+      </c>
+      <c r="Q38">
+        <v>0.13</v>
+      </c>
+      <c r="R38">
+        <v>254.16</v>
+      </c>
+      <c r="S38">
+        <v>46.5</v>
+      </c>
+      <c r="T38">
+        <v>27.52</v>
+      </c>
+      <c r="U38">
+        <v>5.05</v>
+      </c>
+      <c r="W38">
+        <v>9</v>
+      </c>
+      <c r="X38">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A39" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="41">
+        <v>58.14</v>
+      </c>
+      <c r="F39" s="39">
+        <v>6.04</v>
+      </c>
+      <c r="G39" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="39">
+        <v>196</v>
+      </c>
+      <c r="I39" s="39">
+        <v>22</v>
+      </c>
+      <c r="J39" s="39">
+        <v>7</v>
+      </c>
+      <c r="L39" s="41">
+        <v>68.72</v>
+      </c>
+      <c r="M39" s="41">
+        <v>1.76</v>
+      </c>
+      <c r="N39">
+        <v>25.76</v>
+      </c>
+      <c r="O39">
+        <v>23.33</v>
+      </c>
+      <c r="P39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q39">
+        <v>0.62</v>
+      </c>
+      <c r="R39">
+        <v>246.53</v>
+      </c>
+      <c r="S39">
+        <v>42.36</v>
+      </c>
+      <c r="T39">
+        <v>26.52</v>
+      </c>
+      <c r="U39">
+        <v>4.59</v>
+      </c>
+      <c r="W39">
+        <v>9</v>
+      </c>
+      <c r="X39">
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="41">
+        <v>76.08</v>
+      </c>
+      <c r="F40">
+        <v>11.19</v>
+      </c>
+      <c r="G40">
+        <v>0.21</v>
+      </c>
+      <c r="H40">
+        <v>234</v>
+      </c>
+      <c r="I40">
+        <v>25</v>
+      </c>
+      <c r="L40" s="41">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="M40" s="41">
+        <v>1.97</v>
+      </c>
+      <c r="N40">
+        <v>44.73</v>
+      </c>
+      <c r="O40">
+        <v>39.22</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1.04</v>
+      </c>
+      <c r="R40">
+        <v>238.01</v>
+      </c>
+      <c r="S40">
+        <v>37</v>
+      </c>
+      <c r="T40">
+        <v>25.55</v>
+      </c>
+      <c r="U40">
+        <v>4.03</v>
+      </c>
+      <c r="W40">
+        <v>9</v>
+      </c>
+      <c r="X40">
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A41" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="41">
+        <v>41.84</v>
+      </c>
+      <c r="F41" s="40">
+        <v>8.48</v>
+      </c>
+      <c r="G41" s="40">
+        <v>0.19</v>
+      </c>
+      <c r="H41" s="40">
+        <v>277</v>
+      </c>
+      <c r="I41" s="40">
+        <v>31</v>
+      </c>
+      <c r="J41" s="40">
+        <v>9</v>
+      </c>
+      <c r="L41" s="41">
+        <v>45.46</v>
+      </c>
+      <c r="M41" s="41">
+        <v>1.19</v>
+      </c>
+      <c r="N41">
+        <v>6.14</v>
+      </c>
+      <c r="O41">
+        <v>5.99</v>
+      </c>
+      <c r="P41">
+        <v>0.13</v>
+      </c>
+      <c r="Q41">
+        <v>0.15</v>
+      </c>
+      <c r="R41">
+        <v>252.55</v>
+      </c>
+      <c r="S41">
+        <v>47.49</v>
+      </c>
+      <c r="T41">
+        <v>27.35</v>
+      </c>
+      <c r="U41">
+        <v>5.17</v>
+      </c>
+      <c r="W41">
+        <v>9</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A42" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="41">
+        <v>61.18</v>
+      </c>
+      <c r="F42" s="37">
+        <v>23.55</v>
+      </c>
+      <c r="G42" s="37">
+        <v>0.65</v>
+      </c>
+      <c r="H42" s="37">
+        <v>346</v>
+      </c>
+      <c r="I42" s="37">
+        <v>38</v>
+      </c>
+      <c r="J42" s="37">
+        <v>1</v>
+      </c>
+      <c r="L42" s="41">
+        <v>68.760000000000005</v>
+      </c>
+      <c r="M42" s="41">
+        <v>1.76</v>
+      </c>
+      <c r="N42">
+        <v>25.91</v>
+      </c>
+      <c r="O42">
+        <v>24.27</v>
+      </c>
+      <c r="P42">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q42">
+        <v>0.66</v>
+      </c>
+      <c r="R42">
+        <v>246.81</v>
+      </c>
+      <c r="S42">
+        <v>43.01</v>
+      </c>
+      <c r="T42">
+        <v>26.56</v>
+      </c>
+      <c r="U42">
+        <v>4.66</v>
+      </c>
+      <c r="W42">
+        <v>9</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
+      <c r="Y42">
+        <v>3</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A43" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="41">
+        <v>77.61</v>
+      </c>
+      <c r="F43" s="40">
+        <v>43.97</v>
+      </c>
+      <c r="G43" s="40">
+        <v>1.06</v>
+      </c>
+      <c r="H43" s="40">
+        <v>284</v>
+      </c>
+      <c r="I43" s="40">
+        <v>31</v>
+      </c>
+      <c r="J43" s="40">
+        <v>8</v>
+      </c>
+      <c r="L43" s="41">
+        <v>80.08</v>
+      </c>
+      <c r="M43" s="41">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N43">
+        <v>44.76</v>
+      </c>
+      <c r="O43">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1.04</v>
+      </c>
+      <c r="R43">
+        <v>238.54</v>
+      </c>
+      <c r="S43">
+        <v>37.32</v>
+      </c>
+      <c r="T43">
+        <v>25.6</v>
+      </c>
+      <c r="U43">
+        <v>4.03</v>
+      </c>
+      <c r="W43">
+        <v>9</v>
+      </c>
+      <c r="X43">
+        <v>4</v>
+      </c>
+      <c r="Y43">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="41">
+        <v>41.97</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>0.13</v>
+      </c>
+      <c r="H44">
+        <v>279</v>
+      </c>
+      <c r="I44">
+        <v>31</v>
+      </c>
+      <c r="L44" s="41">
+        <v>45.46</v>
+      </c>
+      <c r="M44" s="41">
+        <v>1.2</v>
+      </c>
+      <c r="N44">
+        <v>6.16</v>
+      </c>
+      <c r="O44">
+        <v>5.81</v>
+      </c>
+      <c r="P44">
+        <v>0.13</v>
+      </c>
+      <c r="Q44">
+        <v>0.15</v>
+      </c>
+      <c r="R44">
+        <v>253.6</v>
+      </c>
+      <c r="S44">
+        <v>46.66</v>
+      </c>
+      <c r="T44">
+        <v>27.47</v>
+      </c>
+      <c r="U44">
+        <v>5.07</v>
+      </c>
+      <c r="W44">
+        <v>9</v>
+      </c>
+      <c r="X44">
+        <v>4</v>
+      </c>
+      <c r="Y44">
+        <v>4</v>
+      </c>
+      <c r="Z44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A45" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="41">
+        <v>58.67</v>
+      </c>
+      <c r="F45" s="39">
+        <v>12.69</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="H45" s="39">
+        <v>218</v>
+      </c>
+      <c r="I45" s="39">
+        <v>24</v>
+      </c>
+      <c r="J45" s="39">
+        <v>6</v>
+      </c>
+      <c r="L45" s="41">
+        <v>68.72</v>
+      </c>
+      <c r="M45" s="41">
+        <v>1.77</v>
+      </c>
+      <c r="N45">
+        <v>25.65</v>
+      </c>
+      <c r="O45">
+        <v>23.74</v>
+      </c>
+      <c r="P45">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q45">
+        <v>0.64</v>
+      </c>
+      <c r="R45">
+        <v>245.07</v>
+      </c>
+      <c r="S45">
+        <v>42.55</v>
+      </c>
+      <c r="T45">
+        <v>26.38</v>
+      </c>
+      <c r="U45">
+        <v>4.62</v>
+      </c>
+      <c r="W45">
+        <v>9</v>
+      </c>
+      <c r="X45">
+        <v>4</v>
+      </c>
+      <c r="Y45">
+        <v>4</v>
+      </c>
+      <c r="Z45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="41">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="F46">
+        <v>88.91</v>
+      </c>
+      <c r="G46">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H46">
+        <v>283</v>
+      </c>
+      <c r="I46">
+        <v>31</v>
+      </c>
+      <c r="L46" s="41">
+        <v>80.05</v>
+      </c>
+      <c r="M46" s="41">
+        <v>2.04</v>
+      </c>
+      <c r="N46">
+        <v>44.34</v>
+      </c>
+      <c r="O46">
+        <v>39.06</v>
+      </c>
+      <c r="P46">
+        <v>0.99</v>
+      </c>
+      <c r="Q46">
+        <v>1.04</v>
+      </c>
+      <c r="R46">
+        <v>237.34</v>
+      </c>
+      <c r="S46">
+        <v>37.36</v>
+      </c>
+      <c r="T46">
+        <v>25.44</v>
+      </c>
+      <c r="U46">
+        <v>4.04</v>
+      </c>
+      <c r="W46">
+        <v>9</v>
+      </c>
+      <c r="X46">
+        <v>4</v>
+      </c>
+      <c r="Y46">
+        <v>4</v>
+      </c>
+      <c r="Z46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="41">
+        <v>41.9</v>
+      </c>
+      <c r="F47">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G47">
+        <v>0.11</v>
+      </c>
+      <c r="H47">
+        <v>270</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
+      </c>
+      <c r="L47" s="41">
+        <v>45.51</v>
+      </c>
+      <c r="M47" s="41">
+        <v>1.2</v>
+      </c>
+      <c r="N47">
+        <v>6.33</v>
+      </c>
+      <c r="O47">
+        <v>5.77</v>
+      </c>
+      <c r="P47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>0.15</v>
+      </c>
+      <c r="R47">
+        <v>254.03</v>
+      </c>
+      <c r="S47">
+        <v>47.6</v>
+      </c>
+      <c r="T47">
+        <v>27.49</v>
+      </c>
+      <c r="U47">
+        <v>5.17</v>
+      </c>
+      <c r="W47">
+        <v>9</v>
+      </c>
+      <c r="X47">
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="41">
+        <v>58.76</v>
+      </c>
+      <c r="F48">
+        <v>10.78</v>
+      </c>
+      <c r="G48">
+        <v>0.2</v>
+      </c>
+      <c r="H48">
+        <v>232</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="L48" s="41">
+        <v>68.69</v>
+      </c>
+      <c r="M48" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="N48">
+        <v>25.29</v>
+      </c>
+      <c r="O48">
+        <v>24.04</v>
+      </c>
+      <c r="P48">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q48">
+        <v>0.64</v>
+      </c>
+      <c r="R48">
+        <v>244.77</v>
+      </c>
+      <c r="S48">
+        <v>42.83</v>
+      </c>
+      <c r="T48">
+        <v>26.34</v>
+      </c>
+      <c r="U48">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="W48">
+        <v>9</v>
+      </c>
+      <c r="X48">
+        <v>5</v>
+      </c>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="41">
+        <v>77.08</v>
+      </c>
+      <c r="F49">
+        <v>28.84</v>
+      </c>
+      <c r="G49">
+        <v>0.5</v>
+      </c>
+      <c r="H49">
+        <v>217</v>
+      </c>
+      <c r="I49">
+        <v>24</v>
+      </c>
+      <c r="L49" s="41">
+        <v>80.05</v>
+      </c>
+      <c r="M49" s="41">
+        <v>1.96</v>
+      </c>
+      <c r="N49">
+        <v>44.83</v>
+      </c>
+      <c r="O49">
+        <v>39.36</v>
+      </c>
+      <c r="P49">
+        <v>1.01</v>
+      </c>
+      <c r="Q49">
+        <v>1.04</v>
+      </c>
+      <c r="R49">
+        <v>237.75</v>
+      </c>
+      <c r="S49">
+        <v>37.67</v>
+      </c>
+      <c r="T49">
+        <v>25.5</v>
+      </c>
+      <c r="U49">
+        <v>4.08</v>
+      </c>
+      <c r="W49">
+        <v>9</v>
+      </c>
+      <c r="X49">
+        <v>5</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="41">
+        <v>42.14</v>
+      </c>
+      <c r="F50">
+        <v>7.36</v>
+      </c>
+      <c r="G50">
+        <v>0.18</v>
+      </c>
+      <c r="H50">
+        <v>323</v>
+      </c>
+      <c r="I50">
+        <v>36</v>
+      </c>
+      <c r="L50" s="41">
+        <v>45.45</v>
+      </c>
+      <c r="M50" s="41">
+        <v>1.17</v>
+      </c>
+      <c r="N50">
+        <v>6.03</v>
+      </c>
+      <c r="O50">
+        <v>5.57</v>
+      </c>
+      <c r="P50">
+        <v>0.13</v>
+      </c>
+      <c r="Q50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R50">
+        <v>253.52</v>
+      </c>
+      <c r="S50">
+        <v>47.34</v>
+      </c>
+      <c r="T50">
+        <v>27.45</v>
+      </c>
+      <c r="U50">
+        <v>5.15</v>
+      </c>
+      <c r="W50">
+        <v>9</v>
+      </c>
+      <c r="X50">
+        <v>5</v>
+      </c>
+      <c r="Y50">
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A51" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="41">
+        <v>58.43</v>
+      </c>
+      <c r="F51" s="38">
+        <v>12.23</v>
+      </c>
+      <c r="G51" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="H51" s="38">
+        <v>252</v>
+      </c>
+      <c r="I51" s="38">
+        <v>28</v>
+      </c>
+      <c r="J51" s="38">
+        <v>4</v>
+      </c>
+      <c r="L51" s="41">
+        <v>68.7</v>
+      </c>
+      <c r="M51" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N51">
+        <v>25.69</v>
+      </c>
+      <c r="O51">
+        <v>24.55</v>
+      </c>
+      <c r="P51">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q51">
+        <v>0.65</v>
+      </c>
+      <c r="R51">
+        <v>245.23</v>
+      </c>
+      <c r="S51">
+        <v>42.09</v>
+      </c>
+      <c r="T51">
+        <v>26.39</v>
+      </c>
+      <c r="U51">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="W51">
+        <v>9</v>
+      </c>
+      <c r="X51">
+        <v>5</v>
+      </c>
+      <c r="Y51">
+        <v>3</v>
+      </c>
+      <c r="Z51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="41">
+        <v>75.260000000000005</v>
+      </c>
+      <c r="F52">
+        <v>9.08</v>
+      </c>
+      <c r="G52">
+        <v>0.16</v>
+      </c>
+      <c r="H52">
+        <v>206</v>
+      </c>
+      <c r="I52">
+        <v>23</v>
+      </c>
+      <c r="L52" s="41">
+        <v>80.02</v>
+      </c>
+      <c r="M52" s="41">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="N52">
+        <v>45.44</v>
+      </c>
+      <c r="O52">
+        <v>39.86</v>
+      </c>
+      <c r="P52">
+        <v>1.02</v>
+      </c>
+      <c r="Q52">
+        <v>1.05</v>
+      </c>
+      <c r="R52">
+        <v>238.56</v>
+      </c>
+      <c r="S52">
+        <v>37.69</v>
+      </c>
+      <c r="T52">
+        <v>25.6</v>
+      </c>
+      <c r="U52">
+        <v>4.09</v>
+      </c>
+      <c r="W52">
+        <v>9</v>
+      </c>
+      <c r="X52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>3</v>
+      </c>
+      <c r="Z52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="41">
+        <v>42.38</v>
+      </c>
+      <c r="F53">
+        <v>11.54</v>
+      </c>
+      <c r="G53">
+        <v>0.3</v>
+      </c>
+      <c r="H53">
+        <v>333</v>
+      </c>
+      <c r="I53">
+        <v>37</v>
+      </c>
+      <c r="L53" s="41">
+        <v>45.41</v>
+      </c>
+      <c r="M53" s="41">
+        <v>1.19</v>
+      </c>
+      <c r="N53">
+        <v>5.99</v>
+      </c>
+      <c r="O53">
+        <v>5.74</v>
+      </c>
+      <c r="P53">
+        <v>0.13</v>
+      </c>
+      <c r="Q53">
+        <v>0.15</v>
+      </c>
+      <c r="R53">
+        <v>251.46</v>
+      </c>
+      <c r="S53">
+        <v>47.97</v>
+      </c>
+      <c r="T53">
+        <v>27.24</v>
+      </c>
+      <c r="U53">
+        <v>5.23</v>
+      </c>
+      <c r="W53">
+        <v>9</v>
+      </c>
+      <c r="X53">
+        <v>5</v>
+      </c>
+      <c r="Y53">
+        <v>4</v>
+      </c>
+      <c r="Z53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="41">
+        <v>59.23</v>
+      </c>
+      <c r="F54">
+        <v>17.21</v>
+      </c>
+      <c r="G54">
+        <v>0.36</v>
+      </c>
+      <c r="H54">
+        <v>206</v>
+      </c>
+      <c r="I54">
+        <v>22</v>
+      </c>
+      <c r="L54" s="41">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="M54" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N54">
+        <v>25.38</v>
+      </c>
+      <c r="O54">
+        <v>23.4</v>
+      </c>
+      <c r="P54">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q54">
+        <v>0.62</v>
+      </c>
+      <c r="R54">
+        <v>245.6</v>
+      </c>
+      <c r="S54">
+        <v>41.91</v>
+      </c>
+      <c r="T54">
+        <v>26.42</v>
+      </c>
+      <c r="U54">
+        <v>4.54</v>
+      </c>
+      <c r="W54">
+        <v>9</v>
+      </c>
+      <c r="X54">
+        <v>5</v>
+      </c>
+      <c r="Y54">
+        <v>4</v>
+      </c>
+      <c r="Z54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="41">
+        <v>77.28</v>
+      </c>
+      <c r="F55">
+        <v>43.89</v>
+      </c>
+      <c r="G55">
+        <v>0.88</v>
+      </c>
+      <c r="H55">
+        <v>226</v>
+      </c>
+      <c r="I55">
+        <v>25</v>
+      </c>
+      <c r="L55" s="41">
+        <v>80.06</v>
+      </c>
+      <c r="M55" s="41">
+        <v>1.94</v>
+      </c>
+      <c r="N55">
+        <v>44.29</v>
+      </c>
+      <c r="O55">
+        <v>39.1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1.05</v>
+      </c>
+      <c r="R55">
+        <v>237.72</v>
+      </c>
+      <c r="S55">
+        <v>37.29</v>
+      </c>
+      <c r="T55">
+        <v>25.51</v>
+      </c>
+      <c r="U55">
+        <v>4.05</v>
+      </c>
+      <c r="W55">
+        <v>9</v>
+      </c>
+      <c r="X55">
+        <v>5</v>
+      </c>
+      <c r="Y55">
+        <v>4</v>
+      </c>
+      <c r="Z55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="41">
+        <v>56.84</v>
+      </c>
+      <c r="F56">
+        <v>5.7</v>
+      </c>
+      <c r="G56">
+        <v>0.11</v>
+      </c>
+      <c r="H56">
+        <v>305</v>
+      </c>
+      <c r="I56">
+        <v>25</v>
+      </c>
+      <c r="L56" s="41">
+        <v>62.76</v>
+      </c>
+      <c r="M56" s="41">
+        <v>1.52</v>
+      </c>
+      <c r="N56">
+        <v>18.77</v>
+      </c>
+      <c r="O56">
+        <v>18.12</v>
+      </c>
+      <c r="P56">
+        <v>0.42</v>
+      </c>
+      <c r="Q56">
+        <v>0.49</v>
+      </c>
+      <c r="R56">
+        <v>331.79</v>
+      </c>
+      <c r="S56">
+        <v>57.67</v>
+      </c>
+      <c r="T56">
+        <v>26.92</v>
+      </c>
+      <c r="U56">
+        <v>4.71</v>
+      </c>
+      <c r="W56">
+        <v>12</v>
+      </c>
+      <c r="X56">
+        <v>3</v>
+      </c>
+      <c r="Y56">
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="41">
+        <v>80.83</v>
+      </c>
+      <c r="F57">
+        <v>23.04</v>
+      </c>
+      <c r="G57">
+        <v>0.38</v>
+      </c>
+      <c r="H57">
+        <v>277</v>
+      </c>
+      <c r="I57">
+        <v>23</v>
+      </c>
+      <c r="L57" s="41">
+        <v>94.09</v>
+      </c>
+      <c r="M57" s="41">
+        <v>1.78</v>
+      </c>
+      <c r="N57">
+        <v>77.760000000000005</v>
+      </c>
+      <c r="O57">
+        <v>59.28</v>
+      </c>
+      <c r="P57">
+        <v>1.73</v>
+      </c>
+      <c r="Q57">
+        <v>1.57</v>
+      </c>
+      <c r="R57">
+        <v>298.45</v>
+      </c>
+      <c r="S57">
+        <v>38.36</v>
+      </c>
+      <c r="T57">
+        <v>23.97</v>
+      </c>
+      <c r="U57">
+        <v>3.14</v>
+      </c>
+      <c r="W57">
+        <v>12</v>
+      </c>
+      <c r="X57">
+        <v>3</v>
+      </c>
+      <c r="Y57">
+        <v>2</v>
+      </c>
+      <c r="Z57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="41">
+        <v>102.94</v>
+      </c>
+      <c r="F58">
+        <v>15.05</v>
+      </c>
+      <c r="G58">
+        <v>0.24</v>
+      </c>
+      <c r="H58">
+        <v>221</v>
+      </c>
+      <c r="I58">
+        <v>17</v>
+      </c>
+      <c r="L58" s="41">
+        <v>108.7</v>
+      </c>
+      <c r="M58" s="41">
+        <v>1.89</v>
+      </c>
+      <c r="N58">
+        <v>116.79</v>
+      </c>
+      <c r="O58">
+        <v>76.010000000000005</v>
+      </c>
+      <c r="P58">
+        <v>2.57</v>
+      </c>
+      <c r="Q58">
+        <v>2.02</v>
+      </c>
+      <c r="R58">
+        <v>273.04000000000002</v>
+      </c>
+      <c r="S58">
+        <v>29.3</v>
+      </c>
+      <c r="T58">
+        <v>21.82</v>
+      </c>
+      <c r="U58">
+        <v>2.4</v>
+      </c>
+      <c r="W58">
+        <v>12</v>
+      </c>
+      <c r="X58">
+        <v>3</v>
+      </c>
+      <c r="Y58">
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="41">
+        <v>56.78</v>
+      </c>
+      <c r="F59">
+        <v>3.68</v>
+      </c>
+      <c r="G59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H59">
+        <v>326</v>
+      </c>
+      <c r="I59">
+        <v>27</v>
+      </c>
+      <c r="L59" s="41">
+        <v>62.77</v>
+      </c>
+      <c r="M59" s="41">
+        <v>1.51</v>
+      </c>
+      <c r="N59">
+        <v>18.48</v>
+      </c>
+      <c r="O59">
+        <v>17.25</v>
+      </c>
+      <c r="P59">
+        <v>0.41</v>
+      </c>
+      <c r="Q59">
+        <v>0.47</v>
+      </c>
+      <c r="R59">
+        <v>331.1</v>
+      </c>
+      <c r="S59">
+        <v>58.64</v>
+      </c>
+      <c r="T59">
+        <v>26.84</v>
+      </c>
+      <c r="U59">
+        <v>4.79</v>
+      </c>
+      <c r="W59">
+        <v>12</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>3</v>
+      </c>
+      <c r="Z59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="41">
+        <v>79.72</v>
+      </c>
+      <c r="F60">
+        <v>8.25</v>
+      </c>
+      <c r="G60">
+        <v>0.13</v>
+      </c>
+      <c r="H60">
+        <v>231</v>
+      </c>
+      <c r="I60">
+        <v>18</v>
+      </c>
+      <c r="L60" s="41">
+        <v>94.11</v>
+      </c>
+      <c r="M60" s="41">
+        <v>1.73</v>
+      </c>
+      <c r="N60">
+        <v>76.58</v>
+      </c>
+      <c r="O60">
+        <v>58.07</v>
+      </c>
+      <c r="P60">
+        <v>1.7</v>
+      </c>
+      <c r="Q60">
+        <v>1.52</v>
+      </c>
+      <c r="R60">
+        <v>298.18</v>
+      </c>
+      <c r="S60">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="T60">
+        <v>23.95</v>
+      </c>
+      <c r="U60">
+        <v>3.16</v>
+      </c>
+      <c r="W60">
+        <v>12</v>
+      </c>
+      <c r="X60">
+        <v>3</v>
+      </c>
+      <c r="Y60">
+        <v>3</v>
+      </c>
+      <c r="Z60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="41">
+        <v>106.42</v>
+      </c>
+      <c r="F61">
+        <v>130.77000000000001</v>
+      </c>
+      <c r="G61">
+        <v>2.8</v>
+      </c>
+      <c r="H61">
+        <v>294</v>
+      </c>
+      <c r="I61">
+        <v>24</v>
+      </c>
+      <c r="L61" s="41">
+        <v>108.73</v>
+      </c>
+      <c r="M61" s="41">
+        <v>1.86</v>
+      </c>
+      <c r="N61">
+        <v>117.4</v>
+      </c>
+      <c r="O61">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="P61">
+        <v>2.58</v>
+      </c>
+      <c r="Q61">
+        <v>1.96</v>
+      </c>
+      <c r="R61">
+        <v>273.49</v>
+      </c>
+      <c r="S61">
+        <v>28.53</v>
+      </c>
+      <c r="T61">
+        <v>21.85</v>
+      </c>
+      <c r="U61">
+        <v>2.35</v>
+      </c>
+      <c r="W61">
+        <v>12</v>
+      </c>
+      <c r="X61">
+        <v>3</v>
+      </c>
+      <c r="Y61">
+        <v>3</v>
+      </c>
+      <c r="Z61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="41">
+        <v>57.15</v>
+      </c>
+      <c r="F62">
+        <v>6.96</v>
+      </c>
+      <c r="G62">
+        <v>0.13</v>
+      </c>
+      <c r="H62">
+        <v>312</v>
+      </c>
+      <c r="I62">
+        <v>26</v>
+      </c>
+      <c r="L62" s="41">
+        <v>62.76</v>
+      </c>
+      <c r="M62" s="41">
+        <v>1.53</v>
+      </c>
+      <c r="N62">
+        <v>18.38</v>
+      </c>
+      <c r="O62">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="P62">
+        <v>0.41</v>
+      </c>
+      <c r="Q62">
+        <v>0.45</v>
+      </c>
+      <c r="R62">
+        <v>330.29</v>
+      </c>
+      <c r="S62">
+        <v>58.38</v>
+      </c>
+      <c r="T62">
+        <v>26.78</v>
+      </c>
+      <c r="U62">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="W62">
+        <v>12</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <v>4</v>
+      </c>
+      <c r="Z62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="41">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="F63">
+        <v>15.18</v>
+      </c>
+      <c r="G63">
+        <v>0.3</v>
+      </c>
+      <c r="H63">
+        <v>336</v>
+      </c>
+      <c r="I63">
+        <v>28</v>
+      </c>
+      <c r="L63" s="41">
+        <v>94.1</v>
+      </c>
+      <c r="M63" s="41">
+        <v>1.79</v>
+      </c>
+      <c r="N63">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="O63">
+        <v>58.33</v>
+      </c>
+      <c r="P63">
+        <v>1.7</v>
+      </c>
+      <c r="Q63">
+        <v>1.52</v>
+      </c>
+      <c r="R63">
+        <v>297.19</v>
+      </c>
+      <c r="S63">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="T63">
+        <v>23.85</v>
+      </c>
+      <c r="U63">
+        <v>3.2</v>
+      </c>
+      <c r="W63">
+        <v>12</v>
+      </c>
+      <c r="X63">
+        <v>3</v>
+      </c>
+      <c r="Y63">
+        <v>4</v>
+      </c>
+      <c r="Z63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="41">
+        <v>103.94</v>
+      </c>
+      <c r="F64">
+        <v>87.5</v>
+      </c>
+      <c r="G64">
+        <v>1.93</v>
+      </c>
+      <c r="H64">
+        <v>199</v>
+      </c>
+      <c r="I64">
+        <v>16</v>
+      </c>
+      <c r="L64" s="41">
+        <v>108.73</v>
+      </c>
+      <c r="M64" s="41">
+        <v>1.91</v>
+      </c>
+      <c r="N64">
+        <v>121.27</v>
+      </c>
+      <c r="O64">
+        <v>77.7</v>
+      </c>
+      <c r="P64">
+        <v>2.68</v>
+      </c>
+      <c r="Q64">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R64">
+        <v>274.31</v>
+      </c>
+      <c r="S64">
+        <v>28.73</v>
+      </c>
+      <c r="T64">
+        <v>21.91</v>
+      </c>
+      <c r="U64">
+        <v>2.35</v>
+      </c>
+      <c r="W64">
+        <v>12</v>
+      </c>
+      <c r="X64">
+        <v>3</v>
+      </c>
+      <c r="Y64">
+        <v>4</v>
+      </c>
+      <c r="Z64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="41">
+        <v>56.14</v>
+      </c>
+      <c r="F65">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G65">
+        <v>0.02</v>
+      </c>
+      <c r="H65">
+        <v>259</v>
+      </c>
+      <c r="I65">
+        <v>21</v>
+      </c>
+      <c r="L65" s="41">
+        <v>62.79</v>
+      </c>
+      <c r="M65" s="41">
+        <v>1.52</v>
+      </c>
+      <c r="N65">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="O65">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="P65">
+        <v>0.42</v>
+      </c>
+      <c r="Q65">
+        <v>0.47</v>
+      </c>
+      <c r="R65">
+        <v>332.32</v>
+      </c>
+      <c r="S65">
+        <v>58.97</v>
+      </c>
+      <c r="T65">
+        <v>26.94</v>
+      </c>
+      <c r="U65">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="W65">
+        <v>12</v>
+      </c>
+      <c r="X65">
+        <v>4</v>
+      </c>
+      <c r="Y65">
+        <v>2</v>
+      </c>
+      <c r="Z65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="41">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F66">
+        <v>20.63</v>
+      </c>
+      <c r="G66">
+        <v>0.47</v>
+      </c>
+      <c r="H66">
+        <v>298</v>
+      </c>
+      <c r="I66">
+        <v>25</v>
+      </c>
+      <c r="L66" s="41">
+        <v>94.08</v>
+      </c>
+      <c r="M66" s="41">
+        <v>1.77</v>
+      </c>
+      <c r="N66">
+        <v>76.62</v>
+      </c>
+      <c r="O66">
+        <v>58.03</v>
+      </c>
+      <c r="P66">
+        <v>1.69</v>
+      </c>
+      <c r="Q66">
+        <v>1.51</v>
+      </c>
+      <c r="R66">
+        <v>298.07</v>
+      </c>
+      <c r="S66">
+        <v>39.01</v>
+      </c>
+      <c r="T66">
+        <v>23.93</v>
+      </c>
+      <c r="U66">
+        <v>3.19</v>
+      </c>
+      <c r="W66">
+        <v>12</v>
+      </c>
+      <c r="X66">
+        <v>4</v>
+      </c>
+      <c r="Y66">
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="41">
+        <v>106.42</v>
+      </c>
+      <c r="F67">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="G67">
+        <v>3.14</v>
+      </c>
+      <c r="H67">
+        <v>295</v>
+      </c>
+      <c r="I67">
+        <v>24</v>
+      </c>
+      <c r="L67" s="41">
+        <v>108.77</v>
+      </c>
+      <c r="M67" s="41">
+        <v>1.89</v>
+      </c>
+      <c r="N67">
+        <v>117.39</v>
+      </c>
+      <c r="O67">
+        <v>75.56</v>
+      </c>
+      <c r="P67">
+        <v>2.58</v>
+      </c>
+      <c r="Q67">
+        <v>1.97</v>
+      </c>
+      <c r="R67">
+        <v>273.13</v>
+      </c>
+      <c r="S67">
+        <v>29.04</v>
+      </c>
+      <c r="T67">
+        <v>21.81</v>
+      </c>
+      <c r="U67">
+        <v>2.38</v>
+      </c>
+      <c r="W67">
+        <v>12</v>
+      </c>
+      <c r="X67">
+        <v>4</v>
+      </c>
+      <c r="Y67">
+        <v>2</v>
+      </c>
+      <c r="Z67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="41">
+        <v>56.58</v>
+      </c>
+      <c r="F68">
+        <v>5.71</v>
+      </c>
+      <c r="G68">
+        <v>0.11</v>
+      </c>
+      <c r="H68">
+        <v>314</v>
+      </c>
+      <c r="I68">
+        <v>26</v>
+      </c>
+      <c r="L68" s="41">
+        <v>62.77</v>
+      </c>
+      <c r="M68" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="N68">
+        <v>18.75</v>
+      </c>
+      <c r="O68">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="P68">
+        <v>0.42</v>
+      </c>
+      <c r="Q68">
+        <v>0.46</v>
+      </c>
+      <c r="R68">
+        <v>330.69</v>
+      </c>
+      <c r="S68">
+        <v>59.25</v>
+      </c>
+      <c r="T68">
+        <v>26.82</v>
+      </c>
+      <c r="U68">
+        <v>4.84</v>
+      </c>
+      <c r="W68">
+        <v>12</v>
+      </c>
+      <c r="X68">
+        <v>4</v>
+      </c>
+      <c r="Y68">
+        <v>3</v>
+      </c>
+      <c r="Z68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A69" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="41">
+        <v>81.45</v>
+      </c>
+      <c r="F69" s="37">
+        <v>44.84</v>
+      </c>
+      <c r="G69" s="37">
+        <v>1.04</v>
+      </c>
+      <c r="H69" s="37">
+        <v>374</v>
+      </c>
+      <c r="I69" s="37">
+        <v>31</v>
+      </c>
+      <c r="J69" s="37">
+        <v>2</v>
+      </c>
+      <c r="L69" s="41">
+        <v>94.07</v>
+      </c>
+      <c r="M69" s="41">
+        <v>1.78</v>
+      </c>
+      <c r="N69">
+        <v>75.19</v>
+      </c>
+      <c r="O69">
+        <v>57.45</v>
+      </c>
+      <c r="P69">
+        <v>1.67</v>
+      </c>
+      <c r="Q69">
+        <v>1.52</v>
+      </c>
+      <c r="R69">
+        <v>296.26</v>
+      </c>
+      <c r="S69">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="T69">
+        <v>23.77</v>
+      </c>
+      <c r="U69">
+        <v>3.24</v>
+      </c>
+      <c r="W69">
+        <v>12</v>
+      </c>
+      <c r="X69">
+        <v>4</v>
+      </c>
+      <c r="Y69">
+        <v>3</v>
+      </c>
+      <c r="Z69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="41">
+        <v>102.81</v>
+      </c>
+      <c r="F70">
+        <v>26.57</v>
+      </c>
+      <c r="G70">
+        <v>0.65</v>
+      </c>
+      <c r="H70">
+        <v>263</v>
+      </c>
+      <c r="I70">
+        <v>21</v>
+      </c>
+      <c r="L70" s="41">
+        <v>108.76</v>
+      </c>
+      <c r="M70" s="41">
+        <v>1.81</v>
+      </c>
+      <c r="N70">
+        <v>118.35</v>
+      </c>
+      <c r="O70">
+        <v>74.39</v>
+      </c>
+      <c r="P70">
+        <v>2.62</v>
+      </c>
+      <c r="Q70">
+        <v>1.97</v>
+      </c>
+      <c r="R70">
+        <v>273.83999999999997</v>
+      </c>
+      <c r="S70">
+        <v>28.51</v>
+      </c>
+      <c r="T70">
+        <v>21.87</v>
+      </c>
+      <c r="U70">
+        <v>2.35</v>
+      </c>
+      <c r="W70">
+        <v>12</v>
+      </c>
+      <c r="X70">
+        <v>4</v>
+      </c>
+      <c r="Y70">
+        <v>3</v>
+      </c>
+      <c r="Z70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="41">
+        <v>57.13</v>
+      </c>
+      <c r="F71">
+        <v>6.38</v>
+      </c>
+      <c r="G71">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H71">
+        <v>380</v>
+      </c>
+      <c r="I71">
+        <v>31</v>
+      </c>
+      <c r="L71" s="41">
+        <v>62.73</v>
+      </c>
+      <c r="M71" s="41">
+        <v>1.51</v>
+      </c>
+      <c r="N71">
+        <v>18.09</v>
+      </c>
+      <c r="O71">
+        <v>16.82</v>
+      </c>
+      <c r="P71">
+        <v>0.4</v>
+      </c>
+      <c r="Q71">
+        <v>0.47</v>
+      </c>
+      <c r="R71">
+        <v>328.62</v>
+      </c>
+      <c r="S71">
+        <v>58.31</v>
+      </c>
+      <c r="T71">
+        <v>26.65</v>
+      </c>
+      <c r="U71">
+        <v>4.76</v>
+      </c>
+      <c r="W71">
+        <v>12</v>
+      </c>
+      <c r="X71">
+        <v>4</v>
+      </c>
+      <c r="Y71">
+        <v>4</v>
+      </c>
+      <c r="Z71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="41">
+        <v>81.37</v>
+      </c>
+      <c r="F72">
+        <v>62.19</v>
+      </c>
+      <c r="G72">
+        <v>1.56</v>
+      </c>
+      <c r="H72">
+        <v>362</v>
+      </c>
+      <c r="I72">
+        <v>30</v>
+      </c>
+      <c r="L72" s="41">
+        <v>94.06</v>
+      </c>
+      <c r="M72" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N72">
+        <v>75.64</v>
+      </c>
+      <c r="O72">
+        <v>58.03</v>
+      </c>
+      <c r="P72">
+        <v>1.67</v>
+      </c>
+      <c r="Q72">
+        <v>1.51</v>
+      </c>
+      <c r="R72">
+        <v>296.66000000000003</v>
+      </c>
+      <c r="S72">
+        <v>39.06</v>
+      </c>
+      <c r="T72">
+        <v>23.81</v>
+      </c>
+      <c r="U72">
+        <v>3.2</v>
+      </c>
+      <c r="W72">
+        <v>12</v>
+      </c>
+      <c r="X72">
+        <v>4</v>
+      </c>
+      <c r="Y72">
+        <v>4</v>
+      </c>
+      <c r="Z72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="41">
+        <v>104.55</v>
+      </c>
+      <c r="F73">
+        <v>39.54</v>
+      </c>
+      <c r="G73">
+        <v>0.74</v>
+      </c>
+      <c r="H73">
+        <v>268</v>
+      </c>
+      <c r="I73">
+        <v>22</v>
+      </c>
+      <c r="L73" s="41">
+        <v>108.77</v>
+      </c>
+      <c r="M73" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="N73">
+        <v>119.64</v>
+      </c>
+      <c r="O73">
+        <v>75.209999999999994</v>
+      </c>
+      <c r="P73">
+        <v>2.63</v>
+      </c>
+      <c r="Q73">
+        <v>1.99</v>
+      </c>
+      <c r="R73">
+        <v>274.52999999999997</v>
+      </c>
+      <c r="S73">
+        <v>27.77</v>
+      </c>
+      <c r="T73">
+        <v>21.93</v>
+      </c>
+      <c r="U73">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W73">
+        <v>12</v>
+      </c>
+      <c r="X73">
+        <v>4</v>
+      </c>
+      <c r="Y73">
+        <v>4</v>
+      </c>
+      <c r="Z73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="41">
+        <v>57.08</v>
+      </c>
+      <c r="F74">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="G74">
+        <v>0.19</v>
+      </c>
+      <c r="H74">
+        <v>310</v>
+      </c>
+      <c r="I74">
+        <v>25</v>
+      </c>
+      <c r="L74" s="41">
+        <v>62.78</v>
+      </c>
+      <c r="M74" s="41">
+        <v>1.52</v>
+      </c>
+      <c r="N74">
+        <v>18.13</v>
+      </c>
+      <c r="O74">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="P74">
+        <v>0.4</v>
+      </c>
+      <c r="Q74">
+        <v>0.43</v>
+      </c>
+      <c r="R74">
+        <v>330.13</v>
+      </c>
+      <c r="S74">
+        <v>59.11</v>
+      </c>
+      <c r="T74">
+        <v>26.76</v>
+      </c>
+      <c r="U74">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="W74">
+        <v>12</v>
+      </c>
+      <c r="X74">
+        <v>5</v>
+      </c>
+      <c r="Y74">
+        <v>2</v>
+      </c>
+      <c r="Z74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="41">
+        <v>82.69</v>
+      </c>
+      <c r="F75">
+        <v>191.91</v>
+      </c>
+      <c r="G75">
+        <v>4.79</v>
+      </c>
+      <c r="H75">
+        <v>391</v>
+      </c>
+      <c r="I75">
+        <v>32</v>
+      </c>
+      <c r="L75" s="41">
+        <v>94.08</v>
+      </c>
+      <c r="M75" s="41">
+        <v>1.78</v>
+      </c>
+      <c r="N75">
+        <v>76.17</v>
+      </c>
+      <c r="O75">
+        <v>58.86</v>
+      </c>
+      <c r="P75">
+        <v>1.7</v>
+      </c>
+      <c r="Q75">
+        <v>1.54</v>
+      </c>
+      <c r="R75">
+        <v>296.70999999999998</v>
+      </c>
+      <c r="S75">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="T75">
+        <v>23.81</v>
+      </c>
+      <c r="U75">
+        <v>3.2</v>
+      </c>
+      <c r="W75">
+        <v>12</v>
+      </c>
+      <c r="X75">
+        <v>5</v>
+      </c>
+      <c r="Y75">
+        <v>2</v>
+      </c>
+      <c r="Z75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="41">
+        <v>106.46</v>
+      </c>
+      <c r="F76">
+        <v>118.93</v>
+      </c>
+      <c r="G76">
+        <v>2.31</v>
+      </c>
+      <c r="H76">
+        <v>309</v>
+      </c>
+      <c r="I76">
+        <v>26</v>
+      </c>
+      <c r="L76" s="41">
+        <v>108.69</v>
+      </c>
+      <c r="M76" s="41">
+        <v>1.91</v>
+      </c>
+      <c r="N76">
+        <v>117.35</v>
+      </c>
+      <c r="O76">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="P76">
+        <v>2.58</v>
+      </c>
+      <c r="Q76">
+        <v>1.97</v>
+      </c>
+      <c r="R76">
+        <v>273.2</v>
+      </c>
+      <c r="S76">
+        <v>28.58</v>
+      </c>
+      <c r="T76">
+        <v>21.82</v>
+      </c>
+      <c r="U76">
+        <v>2.34</v>
+      </c>
+      <c r="W76">
+        <v>12</v>
+      </c>
+      <c r="X76">
+        <v>5</v>
+      </c>
+      <c r="Y76">
+        <v>2</v>
+      </c>
+      <c r="Z76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="41">
+        <v>57.5</v>
+      </c>
+      <c r="F77">
+        <v>12.83</v>
+      </c>
+      <c r="G77">
+        <v>0.26</v>
+      </c>
+      <c r="H77">
+        <v>336</v>
+      </c>
+      <c r="I77">
+        <v>28</v>
+      </c>
+      <c r="L77" s="41">
+        <v>62.76</v>
+      </c>
+      <c r="M77" s="41">
+        <v>1.53</v>
+      </c>
+      <c r="N77">
+        <v>18.63</v>
+      </c>
+      <c r="O77">
+        <v>17.48</v>
+      </c>
+      <c r="P77">
+        <v>0.42</v>
+      </c>
+      <c r="Q77">
+        <v>0.47</v>
+      </c>
+      <c r="R77">
+        <v>330</v>
+      </c>
+      <c r="S77">
+        <v>60.12</v>
+      </c>
+      <c r="T77">
+        <v>26.75</v>
+      </c>
+      <c r="U77">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W77">
+        <v>12</v>
+      </c>
+      <c r="X77">
+        <v>5</v>
+      </c>
+      <c r="Y77">
+        <v>3</v>
+      </c>
+      <c r="Z77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="41">
+        <v>82.38</v>
+      </c>
+      <c r="F78">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="G78">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H78">
+        <v>395</v>
+      </c>
+      <c r="I78">
+        <v>32</v>
+      </c>
+      <c r="L78" s="41">
+        <v>94.17</v>
+      </c>
+      <c r="M78" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N78">
+        <v>79.03</v>
+      </c>
+      <c r="O78">
+        <v>58.82</v>
+      </c>
+      <c r="P78">
+        <v>1.76</v>
+      </c>
+      <c r="Q78">
+        <v>1.54</v>
+      </c>
+      <c r="R78">
+        <v>299.08</v>
+      </c>
+      <c r="S78">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="T78">
+        <v>24.01</v>
+      </c>
+      <c r="U78">
+        <v>3.13</v>
+      </c>
+      <c r="W78">
+        <v>12</v>
+      </c>
+      <c r="X78">
+        <v>5</v>
+      </c>
+      <c r="Y78">
+        <v>3</v>
+      </c>
+      <c r="Z78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="41">
+        <v>104.2</v>
+      </c>
+      <c r="F79">
+        <v>27</v>
+      </c>
+      <c r="G79">
+        <v>0.42</v>
+      </c>
+      <c r="H79">
+        <v>243</v>
+      </c>
+      <c r="I79">
+        <v>20</v>
+      </c>
+      <c r="L79" s="41">
+        <v>108.75</v>
+      </c>
+      <c r="M79" s="41">
+        <v>1.88</v>
+      </c>
+      <c r="N79">
+        <v>118.93</v>
+      </c>
+      <c r="O79">
+        <v>75.25</v>
+      </c>
+      <c r="P79">
+        <v>2.62</v>
+      </c>
+      <c r="Q79">
+        <v>1.97</v>
+      </c>
+      <c r="R79">
+        <v>273.76</v>
+      </c>
+      <c r="S79">
+        <v>28.9</v>
+      </c>
+      <c r="T79">
+        <v>21.87</v>
+      </c>
+      <c r="U79">
+        <v>2.37</v>
+      </c>
+      <c r="W79">
+        <v>12</v>
+      </c>
+      <c r="X79">
+        <v>5</v>
+      </c>
+      <c r="Y79">
+        <v>3</v>
+      </c>
+      <c r="Z79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>76</v>
+      </c>
+      <c r="E80" s="41">
+        <v>56.77</v>
+      </c>
+      <c r="F80">
+        <v>5.14</v>
+      </c>
+      <c r="G80">
+        <v>0.1</v>
+      </c>
+      <c r="H80">
+        <v>317</v>
+      </c>
+      <c r="I80">
+        <v>26</v>
+      </c>
+      <c r="L80" s="41">
+        <v>62.75</v>
+      </c>
+      <c r="M80" s="41">
+        <v>1.53</v>
+      </c>
+      <c r="N80">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="O80">
+        <v>17.68</v>
+      </c>
+      <c r="P80">
+        <v>0.42</v>
+      </c>
+      <c r="Q80">
+        <v>0.47</v>
+      </c>
+      <c r="R80">
+        <v>329.6</v>
+      </c>
+      <c r="S80">
+        <v>59.7</v>
+      </c>
+      <c r="T80">
+        <v>26.74</v>
+      </c>
+      <c r="U80">
+        <v>4.87</v>
+      </c>
+      <c r="W80">
+        <v>12</v>
+      </c>
+      <c r="X80">
+        <v>5</v>
+      </c>
+      <c r="Y80">
+        <v>4</v>
+      </c>
+      <c r="Z80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="41">
+        <v>79.56</v>
+      </c>
+      <c r="F81">
+        <v>6.44</v>
+      </c>
+      <c r="G81">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H81">
+        <v>192</v>
+      </c>
+      <c r="I81">
+        <v>16</v>
+      </c>
+      <c r="L81" s="41">
+        <v>94.11</v>
+      </c>
+      <c r="M81" s="41">
+        <v>1.79</v>
+      </c>
+      <c r="N81">
+        <v>77.33</v>
+      </c>
+      <c r="O81">
+        <v>59.1</v>
+      </c>
+      <c r="P81">
+        <v>1.72</v>
+      </c>
+      <c r="Q81">
+        <v>1.55</v>
+      </c>
+      <c r="R81">
+        <v>297.7</v>
+      </c>
+      <c r="S81">
+        <v>38.36</v>
+      </c>
+      <c r="T81">
+        <v>23.9</v>
+      </c>
+      <c r="U81">
+        <v>3.17</v>
+      </c>
+      <c r="W81">
+        <v>12</v>
+      </c>
+      <c r="X81">
+        <v>5</v>
+      </c>
+      <c r="Y81">
+        <v>4</v>
+      </c>
+      <c r="Z81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82" s="41">
+        <v>100.09</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>146</v>
+      </c>
+      <c r="I82">
+        <v>11</v>
+      </c>
+      <c r="L82" s="41">
+        <v>108.74</v>
+      </c>
+      <c r="M82" s="41">
+        <v>1.85</v>
+      </c>
+      <c r="N82">
+        <v>119.44</v>
+      </c>
+      <c r="O82">
+        <v>75.31</v>
+      </c>
+      <c r="P82">
+        <v>2.63</v>
+      </c>
+      <c r="Q82">
+        <v>1.97</v>
+      </c>
+      <c r="R82">
+        <v>274.18</v>
+      </c>
+      <c r="S82">
+        <v>27.84</v>
+      </c>
+      <c r="T82">
+        <v>21.89</v>
+      </c>
+      <c r="U82">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W82">
+        <v>12</v>
+      </c>
+      <c r="X82">
+        <v>5</v>
+      </c>
+      <c r="Y82">
+        <v>4</v>
+      </c>
+      <c r="Z82">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D6FDE1-F6F7-4F43-AC94-AEFD5809F536}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N25"/>
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2967,10 +11014,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957F76D0-FE33-4A76-8CCE-6C434F91C86D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="U18" sqref="U18:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4795,6 +12843,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12F2209-DE46-4EC3-8342-99D42ABD10F1}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6008,6 +14057,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3F2D1D-E595-4E39-A6F5-31A260B0C05C}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7149,6 +15199,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C8A2C-F393-47AE-88A2-A3030F3B1C64}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8288,6 +16339,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1EC4D6-A225-47BC-BD3D-CC02273A5824}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9427,6 +17479,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ED7BC0-6BCF-49FB-A430-CD9290608862}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10566,10 +18619,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C06334E-8D61-4C71-9D4C-E4F7E189CF39}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
